--- a/ParticleSystem_database.xlsx
+++ b/ParticleSystem_database.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2105,10 +2105,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>00001114</t>
-        </is>
+      <c r="A58" t="n">
+        <v>1114</v>
       </c>
       <c r="B58" t="n">
         <v>0.4</v>
@@ -2132,6 +2130,1313 @@
         <v>3933</v>
       </c>
       <c r="I58" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1115</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F59" t="n">
+        <v>200</v>
+      </c>
+      <c r="G59" t="n">
+        <v>200</v>
+      </c>
+      <c r="H59" t="n">
+        <v>16063</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1116</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F60" t="n">
+        <v>200</v>
+      </c>
+      <c r="G60" t="n">
+        <v>200</v>
+      </c>
+      <c r="H60" t="n">
+        <v>15856</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1117</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F61" t="n">
+        <v>200</v>
+      </c>
+      <c r="G61" t="n">
+        <v>200</v>
+      </c>
+      <c r="H61" t="n">
+        <v>15918</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1118</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F62" t="n">
+        <v>200</v>
+      </c>
+      <c r="G62" t="n">
+        <v>200</v>
+      </c>
+      <c r="H62" t="n">
+        <v>16007</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1119</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F63" t="n">
+        <v>200</v>
+      </c>
+      <c r="G63" t="n">
+        <v>200</v>
+      </c>
+      <c r="H63" t="n">
+        <v>16022</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1120</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F64" t="n">
+        <v>200</v>
+      </c>
+      <c r="G64" t="n">
+        <v>200</v>
+      </c>
+      <c r="H64" t="n">
+        <v>15990</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1121</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F65" t="n">
+        <v>200</v>
+      </c>
+      <c r="G65" t="n">
+        <v>200</v>
+      </c>
+      <c r="H65" t="n">
+        <v>15946</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1122</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F66" t="n">
+        <v>200</v>
+      </c>
+      <c r="G66" t="n">
+        <v>200</v>
+      </c>
+      <c r="H66" t="n">
+        <v>16086</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1123</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F67" t="n">
+        <v>200</v>
+      </c>
+      <c r="G67" t="n">
+        <v>200</v>
+      </c>
+      <c r="H67" t="n">
+        <v>15854</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1124</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F68" t="n">
+        <v>200</v>
+      </c>
+      <c r="G68" t="n">
+        <v>200</v>
+      </c>
+      <c r="H68" t="n">
+        <v>16154</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1125</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F69" t="n">
+        <v>200</v>
+      </c>
+      <c r="G69" t="n">
+        <v>200</v>
+      </c>
+      <c r="H69" t="n">
+        <v>15950</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1126</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F70" t="n">
+        <v>200</v>
+      </c>
+      <c r="G70" t="n">
+        <v>200</v>
+      </c>
+      <c r="H70" t="n">
+        <v>16167</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1127</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F71" t="n">
+        <v>200</v>
+      </c>
+      <c r="G71" t="n">
+        <v>200</v>
+      </c>
+      <c r="H71" t="n">
+        <v>15923</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1128</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F72" t="n">
+        <v>200</v>
+      </c>
+      <c r="G72" t="n">
+        <v>200</v>
+      </c>
+      <c r="H72" t="n">
+        <v>16113</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1129</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F73" t="n">
+        <v>200</v>
+      </c>
+      <c r="G73" t="n">
+        <v>200</v>
+      </c>
+      <c r="H73" t="n">
+        <v>15985</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1130</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F74" t="n">
+        <v>200</v>
+      </c>
+      <c r="G74" t="n">
+        <v>200</v>
+      </c>
+      <c r="H74" t="n">
+        <v>15887</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1131</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F75" t="n">
+        <v>200</v>
+      </c>
+      <c r="G75" t="n">
+        <v>200</v>
+      </c>
+      <c r="H75" t="n">
+        <v>15982</v>
+      </c>
+      <c r="I75" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1132</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F76" t="n">
+        <v>200</v>
+      </c>
+      <c r="G76" t="n">
+        <v>200</v>
+      </c>
+      <c r="H76" t="n">
+        <v>16101</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1133</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F77" t="n">
+        <v>200</v>
+      </c>
+      <c r="G77" t="n">
+        <v>200</v>
+      </c>
+      <c r="H77" t="n">
+        <v>16113</v>
+      </c>
+      <c r="I77" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1134</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F78" t="n">
+        <v>200</v>
+      </c>
+      <c r="G78" t="n">
+        <v>200</v>
+      </c>
+      <c r="H78" t="n">
+        <v>16030</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1135</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F79" t="n">
+        <v>200</v>
+      </c>
+      <c r="G79" t="n">
+        <v>200</v>
+      </c>
+      <c r="H79" t="n">
+        <v>15987</v>
+      </c>
+      <c r="I79" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1136</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F80" t="n">
+        <v>200</v>
+      </c>
+      <c r="G80" t="n">
+        <v>200</v>
+      </c>
+      <c r="H80" t="n">
+        <v>15897</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1137</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F81" t="n">
+        <v>200</v>
+      </c>
+      <c r="G81" t="n">
+        <v>200</v>
+      </c>
+      <c r="H81" t="n">
+        <v>16085</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1138</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F82" t="n">
+        <v>200</v>
+      </c>
+      <c r="G82" t="n">
+        <v>200</v>
+      </c>
+      <c r="H82" t="n">
+        <v>16083</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1139</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F83" t="n">
+        <v>200</v>
+      </c>
+      <c r="G83" t="n">
+        <v>200</v>
+      </c>
+      <c r="H83" t="n">
+        <v>15923</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1140</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F84" t="n">
+        <v>200</v>
+      </c>
+      <c r="G84" t="n">
+        <v>200</v>
+      </c>
+      <c r="H84" t="n">
+        <v>15962</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1141</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F85" t="n">
+        <v>200</v>
+      </c>
+      <c r="G85" t="n">
+        <v>200</v>
+      </c>
+      <c r="H85" t="n">
+        <v>16078</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1142</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F86" t="n">
+        <v>200</v>
+      </c>
+      <c r="G86" t="n">
+        <v>200</v>
+      </c>
+      <c r="H86" t="n">
+        <v>15842</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1143</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F87" t="n">
+        <v>200</v>
+      </c>
+      <c r="G87" t="n">
+        <v>200</v>
+      </c>
+      <c r="H87" t="n">
+        <v>16050</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>1144</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F88" t="n">
+        <v>200</v>
+      </c>
+      <c r="G88" t="n">
+        <v>200</v>
+      </c>
+      <c r="H88" t="n">
+        <v>15954</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>1145</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F89" t="n">
+        <v>200</v>
+      </c>
+      <c r="G89" t="n">
+        <v>200</v>
+      </c>
+      <c r="H89" t="n">
+        <v>15980</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>1146</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F90" t="n">
+        <v>200</v>
+      </c>
+      <c r="G90" t="n">
+        <v>200</v>
+      </c>
+      <c r="H90" t="n">
+        <v>16080</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>1147</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F91" t="n">
+        <v>200</v>
+      </c>
+      <c r="G91" t="n">
+        <v>200</v>
+      </c>
+      <c r="H91" t="n">
+        <v>16035</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>1148</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F92" t="n">
+        <v>200</v>
+      </c>
+      <c r="G92" t="n">
+        <v>200</v>
+      </c>
+      <c r="H92" t="n">
+        <v>15921</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>1149</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F93" t="n">
+        <v>200</v>
+      </c>
+      <c r="G93" t="n">
+        <v>200</v>
+      </c>
+      <c r="H93" t="n">
+        <v>15937</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>1150</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F94" t="n">
+        <v>200</v>
+      </c>
+      <c r="G94" t="n">
+        <v>200</v>
+      </c>
+      <c r="H94" t="n">
+        <v>15952</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>1151</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F95" t="n">
+        <v>200</v>
+      </c>
+      <c r="G95" t="n">
+        <v>200</v>
+      </c>
+      <c r="H95" t="n">
+        <v>16107</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>1152</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F96" t="n">
+        <v>200</v>
+      </c>
+      <c r="G96" t="n">
+        <v>200</v>
+      </c>
+      <c r="H96" t="n">
+        <v>15994</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>1153</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F97" t="n">
+        <v>200</v>
+      </c>
+      <c r="G97" t="n">
+        <v>200</v>
+      </c>
+      <c r="H97" t="n">
+        <v>15920</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>1154</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F98" t="n">
+        <v>200</v>
+      </c>
+      <c r="G98" t="n">
+        <v>200</v>
+      </c>
+      <c r="H98" t="n">
+        <v>16026</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>1155</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F99" t="n">
+        <v>200</v>
+      </c>
+      <c r="G99" t="n">
+        <v>200</v>
+      </c>
+      <c r="H99" t="n">
+        <v>16058</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1156</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F100" t="n">
+        <v>200</v>
+      </c>
+      <c r="G100" t="n">
+        <v>200</v>
+      </c>
+      <c r="H100" t="n">
+        <v>15968</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1157</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F101" t="n">
+        <v>200</v>
+      </c>
+      <c r="G101" t="n">
+        <v>200</v>
+      </c>
+      <c r="H101" t="n">
+        <v>15875</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1158</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F102" t="n">
+        <v>200</v>
+      </c>
+      <c r="G102" t="n">
+        <v>200</v>
+      </c>
+      <c r="H102" t="n">
+        <v>16002</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>00001159</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F103" t="n">
+        <v>200</v>
+      </c>
+      <c r="G103" t="n">
+        <v>200</v>
+      </c>
+      <c r="H103" t="n">
+        <v>15783</v>
+      </c>
+      <c r="I103" t="n">
         <v>1000000</v>
       </c>
     </row>

--- a/ParticleSystem_database.xlsx
+++ b/ParticleSystem_database.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3410,10 +3410,8 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>00001159</t>
-        </is>
+      <c r="A103" t="n">
+        <v>1159</v>
       </c>
       <c r="B103" t="n">
         <v>0.4</v>
@@ -3438,6 +3436,95 @@
       </c>
       <c r="I103" t="n">
         <v>1000000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1160</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F104" t="n">
+        <v>200</v>
+      </c>
+      <c r="G104" t="n">
+        <v>200</v>
+      </c>
+      <c r="H104" t="n">
+        <v>16010</v>
+      </c>
+      <c r="I104" t="n">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1161</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F105" t="n">
+        <v>200</v>
+      </c>
+      <c r="G105" t="n">
+        <v>200</v>
+      </c>
+      <c r="H105" t="n">
+        <v>16143</v>
+      </c>
+      <c r="I105" t="n">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>00001162</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F106" t="n">
+        <v>200</v>
+      </c>
+      <c r="G106" t="n">
+        <v>200</v>
+      </c>
+      <c r="H106" t="n">
+        <v>16296</v>
+      </c>
+      <c r="I106" t="n">
+        <v>10000000</v>
       </c>
     </row>
   </sheetData>

--- a/ParticleSystem_database.xlsx
+++ b/ParticleSystem_database.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I959"/>
+  <dimension ref="A1:I1085"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28234,10 +28234,8 @@
       </c>
     </row>
     <row r="959">
-      <c r="A959" t="inlineStr">
-        <is>
-          <t>00002019</t>
-        </is>
+      <c r="A959" t="n">
+        <v>2019</v>
       </c>
       <c r="B959" t="n">
         <v>0.4</v>
@@ -28261,6 +28259,3662 @@
         <v>3977</v>
       </c>
       <c r="I959" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B960" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C960" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D960" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E960" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F960" t="n">
+        <v>100</v>
+      </c>
+      <c r="G960" t="n">
+        <v>100</v>
+      </c>
+      <c r="H960" t="n">
+        <v>2044</v>
+      </c>
+      <c r="I960" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B961" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C961" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D961" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E961" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F961" t="n">
+        <v>100</v>
+      </c>
+      <c r="G961" t="n">
+        <v>100</v>
+      </c>
+      <c r="H961" t="n">
+        <v>3943</v>
+      </c>
+      <c r="I961" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B962" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C962" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D962" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E962" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F962" t="n">
+        <v>100</v>
+      </c>
+      <c r="G962" t="n">
+        <v>100</v>
+      </c>
+      <c r="H962" t="n">
+        <v>5975</v>
+      </c>
+      <c r="I962" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B963" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C963" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D963" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E963" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F963" t="n">
+        <v>100</v>
+      </c>
+      <c r="G963" t="n">
+        <v>100</v>
+      </c>
+      <c r="H963" t="n">
+        <v>4058</v>
+      </c>
+      <c r="I963" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B964" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C964" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D964" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E964" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F964" t="n">
+        <v>100</v>
+      </c>
+      <c r="G964" t="n">
+        <v>100</v>
+      </c>
+      <c r="H964" t="n">
+        <v>1989</v>
+      </c>
+      <c r="I964" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B965" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C965" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D965" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E965" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F965" t="n">
+        <v>100</v>
+      </c>
+      <c r="G965" t="n">
+        <v>100</v>
+      </c>
+      <c r="H965" t="n">
+        <v>4027</v>
+      </c>
+      <c r="I965" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B966" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C966" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D966" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E966" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F966" t="n">
+        <v>100</v>
+      </c>
+      <c r="G966" t="n">
+        <v>100</v>
+      </c>
+      <c r="H966" t="n">
+        <v>6006</v>
+      </c>
+      <c r="I966" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="n">
+        <v>2027</v>
+      </c>
+      <c r="B967" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C967" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D967" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E967" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F967" t="n">
+        <v>100</v>
+      </c>
+      <c r="G967" t="n">
+        <v>100</v>
+      </c>
+      <c r="H967" t="n">
+        <v>3996</v>
+      </c>
+      <c r="I967" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="n">
+        <v>2028</v>
+      </c>
+      <c r="B968" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C968" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D968" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E968" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F968" t="n">
+        <v>100</v>
+      </c>
+      <c r="G968" t="n">
+        <v>100</v>
+      </c>
+      <c r="H968" t="n">
+        <v>1993</v>
+      </c>
+      <c r="I968" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="n">
+        <v>2029</v>
+      </c>
+      <c r="B969" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C969" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D969" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E969" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F969" t="n">
+        <v>100</v>
+      </c>
+      <c r="G969" t="n">
+        <v>100</v>
+      </c>
+      <c r="H969" t="n">
+        <v>4004</v>
+      </c>
+      <c r="I969" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="n">
+        <v>2030</v>
+      </c>
+      <c r="B970" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C970" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D970" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E970" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F970" t="n">
+        <v>100</v>
+      </c>
+      <c r="G970" t="n">
+        <v>100</v>
+      </c>
+      <c r="H970" t="n">
+        <v>6043</v>
+      </c>
+      <c r="I970" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="n">
+        <v>2031</v>
+      </c>
+      <c r="B971" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C971" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D971" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E971" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F971" t="n">
+        <v>100</v>
+      </c>
+      <c r="G971" t="n">
+        <v>100</v>
+      </c>
+      <c r="H971" t="n">
+        <v>3930</v>
+      </c>
+      <c r="I971" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="n">
+        <v>2032</v>
+      </c>
+      <c r="B972" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C972" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D972" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E972" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F972" t="n">
+        <v>100</v>
+      </c>
+      <c r="G972" t="n">
+        <v>100</v>
+      </c>
+      <c r="H972" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I972" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="n">
+        <v>2033</v>
+      </c>
+      <c r="B973" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C973" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D973" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E973" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F973" t="n">
+        <v>100</v>
+      </c>
+      <c r="G973" t="n">
+        <v>100</v>
+      </c>
+      <c r="H973" t="n">
+        <v>3962</v>
+      </c>
+      <c r="I973" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="n">
+        <v>2034</v>
+      </c>
+      <c r="B974" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C974" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D974" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E974" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F974" t="n">
+        <v>100</v>
+      </c>
+      <c r="G974" t="n">
+        <v>100</v>
+      </c>
+      <c r="H974" t="n">
+        <v>6000</v>
+      </c>
+      <c r="I974" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="n">
+        <v>2035</v>
+      </c>
+      <c r="B975" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C975" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D975" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E975" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F975" t="n">
+        <v>100</v>
+      </c>
+      <c r="G975" t="n">
+        <v>100</v>
+      </c>
+      <c r="H975" t="n">
+        <v>4087</v>
+      </c>
+      <c r="I975" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="n">
+        <v>2036</v>
+      </c>
+      <c r="B976" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C976" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D976" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E976" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F976" t="n">
+        <v>100</v>
+      </c>
+      <c r="G976" t="n">
+        <v>100</v>
+      </c>
+      <c r="H976" t="n">
+        <v>2083</v>
+      </c>
+      <c r="I976" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="n">
+        <v>2037</v>
+      </c>
+      <c r="B977" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C977" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D977" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E977" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F977" t="n">
+        <v>100</v>
+      </c>
+      <c r="G977" t="n">
+        <v>100</v>
+      </c>
+      <c r="H977" t="n">
+        <v>3988</v>
+      </c>
+      <c r="I977" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="n">
+        <v>2038</v>
+      </c>
+      <c r="B978" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C978" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D978" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E978" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F978" t="n">
+        <v>100</v>
+      </c>
+      <c r="G978" t="n">
+        <v>100</v>
+      </c>
+      <c r="H978" t="n">
+        <v>5978</v>
+      </c>
+      <c r="I978" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="n">
+        <v>2039</v>
+      </c>
+      <c r="B979" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C979" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D979" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E979" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F979" t="n">
+        <v>100</v>
+      </c>
+      <c r="G979" t="n">
+        <v>100</v>
+      </c>
+      <c r="H979" t="n">
+        <v>3947</v>
+      </c>
+      <c r="I979" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="n">
+        <v>2040</v>
+      </c>
+      <c r="B980" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C980" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D980" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E980" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F980" t="n">
+        <v>100</v>
+      </c>
+      <c r="G980" t="n">
+        <v>100</v>
+      </c>
+      <c r="H980" t="n">
+        <v>3932</v>
+      </c>
+      <c r="I980" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="n">
+        <v>2041</v>
+      </c>
+      <c r="B981" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C981" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D981" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E981" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F981" t="n">
+        <v>100</v>
+      </c>
+      <c r="G981" t="n">
+        <v>100</v>
+      </c>
+      <c r="H981" t="n">
+        <v>1971</v>
+      </c>
+      <c r="I981" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="n">
+        <v>2042</v>
+      </c>
+      <c r="B982" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C982" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D982" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E982" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F982" t="n">
+        <v>100</v>
+      </c>
+      <c r="G982" t="n">
+        <v>100</v>
+      </c>
+      <c r="H982" t="n">
+        <v>6052</v>
+      </c>
+      <c r="I982" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="n">
+        <v>2043</v>
+      </c>
+      <c r="B983" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C983" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D983" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E983" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F983" t="n">
+        <v>100</v>
+      </c>
+      <c r="G983" t="n">
+        <v>100</v>
+      </c>
+      <c r="H983" t="n">
+        <v>3915</v>
+      </c>
+      <c r="I983" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="n">
+        <v>2044</v>
+      </c>
+      <c r="B984" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C984" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D984" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E984" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F984" t="n">
+        <v>100</v>
+      </c>
+      <c r="G984" t="n">
+        <v>100</v>
+      </c>
+      <c r="H984" t="n">
+        <v>3998</v>
+      </c>
+      <c r="I984" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B985" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C985" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D985" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E985" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F985" t="n">
+        <v>100</v>
+      </c>
+      <c r="G985" t="n">
+        <v>100</v>
+      </c>
+      <c r="H985" t="n">
+        <v>2028</v>
+      </c>
+      <c r="I985" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="n">
+        <v>2046</v>
+      </c>
+      <c r="B986" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C986" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D986" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E986" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F986" t="n">
+        <v>100</v>
+      </c>
+      <c r="G986" t="n">
+        <v>100</v>
+      </c>
+      <c r="H986" t="n">
+        <v>5966</v>
+      </c>
+      <c r="I986" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="n">
+        <v>2047</v>
+      </c>
+      <c r="B987" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C987" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D987" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E987" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F987" t="n">
+        <v>100</v>
+      </c>
+      <c r="G987" t="n">
+        <v>100</v>
+      </c>
+      <c r="H987" t="n">
+        <v>3997</v>
+      </c>
+      <c r="I987" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="n">
+        <v>2048</v>
+      </c>
+      <c r="B988" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C988" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D988" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E988" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F988" t="n">
+        <v>100</v>
+      </c>
+      <c r="G988" t="n">
+        <v>100</v>
+      </c>
+      <c r="H988" t="n">
+        <v>1939</v>
+      </c>
+      <c r="I988" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="n">
+        <v>2049</v>
+      </c>
+      <c r="B989" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C989" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D989" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E989" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F989" t="n">
+        <v>100</v>
+      </c>
+      <c r="G989" t="n">
+        <v>100</v>
+      </c>
+      <c r="H989" t="n">
+        <v>4039</v>
+      </c>
+      <c r="I989" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="n">
+        <v>2050</v>
+      </c>
+      <c r="B990" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C990" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D990" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E990" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F990" t="n">
+        <v>100</v>
+      </c>
+      <c r="G990" t="n">
+        <v>100</v>
+      </c>
+      <c r="H990" t="n">
+        <v>5986</v>
+      </c>
+      <c r="I990" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="n">
+        <v>2051</v>
+      </c>
+      <c r="B991" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C991" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D991" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E991" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F991" t="n">
+        <v>100</v>
+      </c>
+      <c r="G991" t="n">
+        <v>100</v>
+      </c>
+      <c r="H991" t="n">
+        <v>3990</v>
+      </c>
+      <c r="I991" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="n">
+        <v>2052</v>
+      </c>
+      <c r="B992" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C992" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D992" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E992" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F992" t="n">
+        <v>100</v>
+      </c>
+      <c r="G992" t="n">
+        <v>100</v>
+      </c>
+      <c r="H992" t="n">
+        <v>3925</v>
+      </c>
+      <c r="I992" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="n">
+        <v>2053</v>
+      </c>
+      <c r="B993" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C993" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D993" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E993" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F993" t="n">
+        <v>100</v>
+      </c>
+      <c r="G993" t="n">
+        <v>100</v>
+      </c>
+      <c r="H993" t="n">
+        <v>1962</v>
+      </c>
+      <c r="I993" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="n">
+        <v>2054</v>
+      </c>
+      <c r="B994" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C994" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D994" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E994" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F994" t="n">
+        <v>100</v>
+      </c>
+      <c r="G994" t="n">
+        <v>100</v>
+      </c>
+      <c r="H994" t="n">
+        <v>5953</v>
+      </c>
+      <c r="I994" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="n">
+        <v>2055</v>
+      </c>
+      <c r="B995" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C995" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D995" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E995" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F995" t="n">
+        <v>100</v>
+      </c>
+      <c r="G995" t="n">
+        <v>100</v>
+      </c>
+      <c r="H995" t="n">
+        <v>3970</v>
+      </c>
+      <c r="I995" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="n">
+        <v>2056</v>
+      </c>
+      <c r="B996" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C996" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D996" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E996" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F996" t="n">
+        <v>100</v>
+      </c>
+      <c r="G996" t="n">
+        <v>100</v>
+      </c>
+      <c r="H996" t="n">
+        <v>4045</v>
+      </c>
+      <c r="I996" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="n">
+        <v>2057</v>
+      </c>
+      <c r="B997" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C997" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D997" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E997" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F997" t="n">
+        <v>100</v>
+      </c>
+      <c r="G997" t="n">
+        <v>100</v>
+      </c>
+      <c r="H997" t="n">
+        <v>2013</v>
+      </c>
+      <c r="I997" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="n">
+        <v>2058</v>
+      </c>
+      <c r="B998" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C998" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D998" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E998" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F998" t="n">
+        <v>100</v>
+      </c>
+      <c r="G998" t="n">
+        <v>100</v>
+      </c>
+      <c r="H998" t="n">
+        <v>5950</v>
+      </c>
+      <c r="I998" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="n">
+        <v>2059</v>
+      </c>
+      <c r="B999" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C999" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D999" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E999" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F999" t="n">
+        <v>100</v>
+      </c>
+      <c r="G999" t="n">
+        <v>100</v>
+      </c>
+      <c r="H999" t="n">
+        <v>3974</v>
+      </c>
+      <c r="I999" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="n">
+        <v>2060</v>
+      </c>
+      <c r="B1000" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1000" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1000" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1000" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1000" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1000" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1000" t="n">
+        <v>4030</v>
+      </c>
+      <c r="I1000" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="n">
+        <v>2061</v>
+      </c>
+      <c r="B1001" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1001" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1001" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1001" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1001" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1001" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1001" t="n">
+        <v>2002</v>
+      </c>
+      <c r="I1001" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="n">
+        <v>2062</v>
+      </c>
+      <c r="B1002" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1002" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1002" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1002" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1002" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1002" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1002" t="n">
+        <v>5948</v>
+      </c>
+      <c r="I1002" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="n">
+        <v>2063</v>
+      </c>
+      <c r="B1003" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1003" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1003" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1003" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1003" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1003" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1003" t="n">
+        <v>3935</v>
+      </c>
+      <c r="I1003" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="n">
+        <v>2064</v>
+      </c>
+      <c r="B1004" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1004" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1004" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1004" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1004" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1004" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1004" t="n">
+        <v>1956</v>
+      </c>
+      <c r="I1004" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="n">
+        <v>2065</v>
+      </c>
+      <c r="B1005" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1005" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1005" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1005" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1005" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1005" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1005" t="n">
+        <v>3918</v>
+      </c>
+      <c r="I1005" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="n">
+        <v>2066</v>
+      </c>
+      <c r="B1006" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1006" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1006" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1006" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1006" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1006" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1006" t="n">
+        <v>5996</v>
+      </c>
+      <c r="I1006" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="n">
+        <v>2067</v>
+      </c>
+      <c r="B1007" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1007" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1007" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1007" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1007" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1007" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1007" t="n">
+        <v>3873</v>
+      </c>
+      <c r="I1007" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="n">
+        <v>2068</v>
+      </c>
+      <c r="B1008" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1008" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1008" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1008" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1008" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1008" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1008" t="n">
+        <v>1941</v>
+      </c>
+      <c r="I1008" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="n">
+        <v>2069</v>
+      </c>
+      <c r="B1009" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1009" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1009" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1009" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1009" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1009" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1009" t="n">
+        <v>3951</v>
+      </c>
+      <c r="I1009" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="n">
+        <v>2070</v>
+      </c>
+      <c r="B1010" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1010" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1010" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1010" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1010" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1010" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1010" t="n">
+        <v>5985</v>
+      </c>
+      <c r="I1010" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="n">
+        <v>2071</v>
+      </c>
+      <c r="B1011" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1011" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1011" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1011" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1011" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1011" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1011" t="n">
+        <v>3963</v>
+      </c>
+      <c r="I1011" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="n">
+        <v>2072</v>
+      </c>
+      <c r="B1012" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1012" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1012" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1012" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1012" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1012" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1012" t="n">
+        <v>3973</v>
+      </c>
+      <c r="I1012" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="n">
+        <v>2073</v>
+      </c>
+      <c r="B1013" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1013" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1013" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1013" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1013" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1013" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1013" t="n">
+        <v>2004</v>
+      </c>
+      <c r="I1013" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="n">
+        <v>2074</v>
+      </c>
+      <c r="B1014" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1014" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1014" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1014" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1014" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1014" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1014" t="n">
+        <v>5887</v>
+      </c>
+      <c r="I1014" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="n">
+        <v>2075</v>
+      </c>
+      <c r="B1015" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1015" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1015" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1015" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1015" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1015" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1015" t="n">
+        <v>3988</v>
+      </c>
+      <c r="I1015" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="n">
+        <v>2076</v>
+      </c>
+      <c r="B1016" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1016" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1016" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1016" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1016" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1016" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1016" t="n">
+        <v>4023</v>
+      </c>
+      <c r="I1016" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="n">
+        <v>2077</v>
+      </c>
+      <c r="B1017" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1017" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1017" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1017" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1017" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1017" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1017" t="n">
+        <v>2018</v>
+      </c>
+      <c r="I1017" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="n">
+        <v>2078</v>
+      </c>
+      <c r="B1018" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1018" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1018" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1018" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1018" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1018" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1018" t="n">
+        <v>6037</v>
+      </c>
+      <c r="I1018" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="n">
+        <v>2079</v>
+      </c>
+      <c r="B1019" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1019" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1019" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1019" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1019" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1019" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1019" t="n">
+        <v>4037</v>
+      </c>
+      <c r="I1019" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="n">
+        <v>2080</v>
+      </c>
+      <c r="B1020" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1020" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1020" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1020" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1020" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1020" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1020" t="n">
+        <v>3981</v>
+      </c>
+      <c r="I1020" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="n">
+        <v>2081</v>
+      </c>
+      <c r="B1021" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1021" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1021" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1021" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1021" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1021" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1021" t="n">
+        <v>2037</v>
+      </c>
+      <c r="I1021" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="n">
+        <v>2082</v>
+      </c>
+      <c r="B1022" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1022" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1022" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1022" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1022" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1022" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1022" t="n">
+        <v>5937</v>
+      </c>
+      <c r="I1022" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="n">
+        <v>2083</v>
+      </c>
+      <c r="B1023" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1023" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1023" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1023" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1023" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1023" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1023" t="n">
+        <v>3949</v>
+      </c>
+      <c r="I1023" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="n">
+        <v>2084</v>
+      </c>
+      <c r="B1024" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1024" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1024" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1024" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1024" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1024" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1024" t="n">
+        <v>3954</v>
+      </c>
+      <c r="I1024" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="n">
+        <v>2085</v>
+      </c>
+      <c r="B1025" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1025" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1025" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1025" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1025" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1025" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1025" t="n">
+        <v>2001</v>
+      </c>
+      <c r="I1025" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="n">
+        <v>2086</v>
+      </c>
+      <c r="B1026" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1026" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1026" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1026" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1026" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1026" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1026" t="n">
+        <v>6064</v>
+      </c>
+      <c r="I1026" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="n">
+        <v>2087</v>
+      </c>
+      <c r="B1027" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1027" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1027" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1027" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1027" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1027" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1027" t="n">
+        <v>3990</v>
+      </c>
+      <c r="I1027" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="n">
+        <v>2088</v>
+      </c>
+      <c r="B1028" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1028" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1028" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1028" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1028" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1028" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1028" t="n">
+        <v>3974</v>
+      </c>
+      <c r="I1028" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="n">
+        <v>2089</v>
+      </c>
+      <c r="B1029" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1029" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1029" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1029" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1029" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1029" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1029" t="n">
+        <v>1985</v>
+      </c>
+      <c r="I1029" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="n">
+        <v>2090</v>
+      </c>
+      <c r="B1030" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1030" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1030" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1030" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1030" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1030" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1030" t="n">
+        <v>5907</v>
+      </c>
+      <c r="I1030" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="n">
+        <v>2091</v>
+      </c>
+      <c r="B1031" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1031" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1031" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1031" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1031" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1031" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1031" t="n">
+        <v>4056</v>
+      </c>
+      <c r="I1031" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="n">
+        <v>2092</v>
+      </c>
+      <c r="B1032" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1032" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1032" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1032" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1032" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1032" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1032" t="n">
+        <v>4004</v>
+      </c>
+      <c r="I1032" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="n">
+        <v>2093</v>
+      </c>
+      <c r="B1033" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1033" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1033" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1033" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1033" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1033" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1033" t="n">
+        <v>1959</v>
+      </c>
+      <c r="I1033" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="n">
+        <v>2094</v>
+      </c>
+      <c r="B1034" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1034" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1034" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1034" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1034" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1034" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1034" t="n">
+        <v>5968</v>
+      </c>
+      <c r="I1034" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="n">
+        <v>2095</v>
+      </c>
+      <c r="B1035" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1035" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1035" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1035" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1035" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1035" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1035" t="n">
+        <v>3977</v>
+      </c>
+      <c r="I1035" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="n">
+        <v>2096</v>
+      </c>
+      <c r="B1036" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1036" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1036" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1036" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1036" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1036" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1036" t="n">
+        <v>3962</v>
+      </c>
+      <c r="I1036" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="n">
+        <v>2097</v>
+      </c>
+      <c r="B1037" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1037" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1037" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1037" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1037" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1037" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1037" t="n">
+        <v>1966</v>
+      </c>
+      <c r="I1037" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="n">
+        <v>2098</v>
+      </c>
+      <c r="B1038" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1038" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1038" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1038" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1038" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1038" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1038" t="n">
+        <v>6012</v>
+      </c>
+      <c r="I1038" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="n">
+        <v>2099</v>
+      </c>
+      <c r="B1039" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1039" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1039" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1039" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1039" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1039" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1039" t="n">
+        <v>4057</v>
+      </c>
+      <c r="I1039" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B1040" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1040" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1040" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1040" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1040" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1040" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1040" t="n">
+        <v>3973</v>
+      </c>
+      <c r="I1040" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="n">
+        <v>2101</v>
+      </c>
+      <c r="B1041" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1041" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1041" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1041" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1041" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1041" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1041" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1041" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="n">
+        <v>2102</v>
+      </c>
+      <c r="B1042" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1042" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1042" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1042" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1042" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1042" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1042" t="n">
+        <v>6084</v>
+      </c>
+      <c r="I1042" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="n">
+        <v>2103</v>
+      </c>
+      <c r="B1043" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1043" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1043" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1043" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1043" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1043" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1043" t="n">
+        <v>4042</v>
+      </c>
+      <c r="I1043" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="n">
+        <v>2104</v>
+      </c>
+      <c r="B1044" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1044" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1044" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1044" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1044" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1044" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1044" t="n">
+        <v>4082</v>
+      </c>
+      <c r="I1044" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="n">
+        <v>2105</v>
+      </c>
+      <c r="B1045" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1045" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1045" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1045" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1045" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1045" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1045" t="n">
+        <v>2019</v>
+      </c>
+      <c r="I1045" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="n">
+        <v>2106</v>
+      </c>
+      <c r="B1046" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1046" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1046" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1046" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1046" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1046" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1046" t="n">
+        <v>5997</v>
+      </c>
+      <c r="I1046" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="n">
+        <v>2107</v>
+      </c>
+      <c r="B1047" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1047" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1047" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1047" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1047" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1047" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1047" t="n">
+        <v>3998</v>
+      </c>
+      <c r="I1047" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="n">
+        <v>2108</v>
+      </c>
+      <c r="B1048" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1048" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1048" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1048" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1048" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1048" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1048" t="n">
+        <v>4104</v>
+      </c>
+      <c r="I1048" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="n">
+        <v>2109</v>
+      </c>
+      <c r="B1049" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1049" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1049" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1049" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1049" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1049" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1049" t="n">
+        <v>2007</v>
+      </c>
+      <c r="I1049" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="n">
+        <v>2110</v>
+      </c>
+      <c r="B1050" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1050" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1050" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1050" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1050" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1050" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1050" t="n">
+        <v>5983</v>
+      </c>
+      <c r="I1050" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="n">
+        <v>2111</v>
+      </c>
+      <c r="B1051" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1051" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1051" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1051" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1051" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1051" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1051" t="n">
+        <v>4026</v>
+      </c>
+      <c r="I1051" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="n">
+        <v>2112</v>
+      </c>
+      <c r="B1052" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1052" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1052" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1052" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1052" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1052" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1052" t="n">
+        <v>1994</v>
+      </c>
+      <c r="I1052" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="n">
+        <v>2113</v>
+      </c>
+      <c r="B1053" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1053" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1053" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1053" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1053" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1053" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1053" t="n">
+        <v>3964</v>
+      </c>
+      <c r="I1053" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="n">
+        <v>2114</v>
+      </c>
+      <c r="B1054" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1054" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1054" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1054" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1054" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1054" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1054" t="n">
+        <v>5995</v>
+      </c>
+      <c r="I1054" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="n">
+        <v>2115</v>
+      </c>
+      <c r="B1055" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1055" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1055" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1055" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1055" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1055" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1055" t="n">
+        <v>3982</v>
+      </c>
+      <c r="I1055" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="n">
+        <v>2116</v>
+      </c>
+      <c r="B1056" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1056" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1056" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1056" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1056" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1056" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1056" t="n">
+        <v>2006</v>
+      </c>
+      <c r="I1056" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="n">
+        <v>2117</v>
+      </c>
+      <c r="B1057" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1057" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1057" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1057" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1057" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1057" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1057" t="n">
+        <v>4024</v>
+      </c>
+      <c r="I1057" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="n">
+        <v>2118</v>
+      </c>
+      <c r="B1058" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1058" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1058" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1058" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1058" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1058" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1058" t="n">
+        <v>6065</v>
+      </c>
+      <c r="I1058" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="n">
+        <v>2119</v>
+      </c>
+      <c r="B1059" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1059" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1059" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1059" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1059" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1059" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1059" t="n">
+        <v>3954</v>
+      </c>
+      <c r="I1059" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="n">
+        <v>2120</v>
+      </c>
+      <c r="B1060" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1060" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1060" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1060" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1060" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1060" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1060" t="n">
+        <v>1988</v>
+      </c>
+      <c r="I1060" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="n">
+        <v>2121</v>
+      </c>
+      <c r="B1061" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1061" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1061" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1061" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1061" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1061" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1061" t="n">
+        <v>4045</v>
+      </c>
+      <c r="I1061" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="n">
+        <v>2122</v>
+      </c>
+      <c r="B1062" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1062" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1062" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1062" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1062" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1062" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1062" t="n">
+        <v>6039</v>
+      </c>
+      <c r="I1062" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="n">
+        <v>2123</v>
+      </c>
+      <c r="B1063" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1063" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1063" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1063" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1063" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1063" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1063" t="n">
+        <v>3941</v>
+      </c>
+      <c r="I1063" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="n">
+        <v>2124</v>
+      </c>
+      <c r="B1064" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1064" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1064" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1064" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1064" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1064" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1064" t="n">
+        <v>1998</v>
+      </c>
+      <c r="I1064" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="n">
+        <v>2125</v>
+      </c>
+      <c r="B1065" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1065" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1065" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1065" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1065" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1065" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1065" t="n">
+        <v>3945</v>
+      </c>
+      <c r="I1065" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="n">
+        <v>2126</v>
+      </c>
+      <c r="B1066" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1066" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1066" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1066" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1066" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1066" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1066" t="n">
+        <v>5923</v>
+      </c>
+      <c r="I1066" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="n">
+        <v>2127</v>
+      </c>
+      <c r="B1067" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1067" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1067" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1067" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1067" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1067" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1067" t="n">
+        <v>3957</v>
+      </c>
+      <c r="I1067" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="n">
+        <v>2128</v>
+      </c>
+      <c r="B1068" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1068" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1068" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1068" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1068" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1068" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1068" t="n">
+        <v>1999</v>
+      </c>
+      <c r="I1068" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="n">
+        <v>2129</v>
+      </c>
+      <c r="B1069" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1069" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1069" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1069" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1069" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1069" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1069" t="n">
+        <v>3936</v>
+      </c>
+      <c r="I1069" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="n">
+        <v>2130</v>
+      </c>
+      <c r="B1070" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1070" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1070" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1070" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1070" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1070" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1070" t="n">
+        <v>6028</v>
+      </c>
+      <c r="I1070" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="n">
+        <v>2131</v>
+      </c>
+      <c r="B1071" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1071" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1071" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1071" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1071" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1071" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1071" t="n">
+        <v>3914</v>
+      </c>
+      <c r="I1071" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="n">
+        <v>2132</v>
+      </c>
+      <c r="B1072" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1072" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1072" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1072" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1072" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1072" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1072" t="n">
+        <v>2070</v>
+      </c>
+      <c r="I1072" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="n">
+        <v>2133</v>
+      </c>
+      <c r="B1073" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1073" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1073" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1073" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1073" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1073" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1073" t="n">
+        <v>3903</v>
+      </c>
+      <c r="I1073" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="n">
+        <v>2134</v>
+      </c>
+      <c r="B1074" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1074" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1074" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1074" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1074" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1074" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1074" t="n">
+        <v>5986</v>
+      </c>
+      <c r="I1074" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="n">
+        <v>2135</v>
+      </c>
+      <c r="B1075" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1075" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1075" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1075" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1075" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1075" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1075" t="n">
+        <v>4056</v>
+      </c>
+      <c r="I1075" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="n">
+        <v>2136</v>
+      </c>
+      <c r="B1076" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1076" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1076" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1076" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1076" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1076" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1076" t="n">
+        <v>1990</v>
+      </c>
+      <c r="I1076" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="n">
+        <v>2137</v>
+      </c>
+      <c r="B1077" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1077" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1077" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1077" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1077" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1077" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1077" t="n">
+        <v>4008</v>
+      </c>
+      <c r="I1077" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="n">
+        <v>2138</v>
+      </c>
+      <c r="B1078" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1078" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1078" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1078" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1078" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1078" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1078" t="n">
+        <v>6016</v>
+      </c>
+      <c r="I1078" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="n">
+        <v>2139</v>
+      </c>
+      <c r="B1079" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1079" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1079" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1079" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1079" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1079" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1079" t="n">
+        <v>4121</v>
+      </c>
+      <c r="I1079" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="n">
+        <v>2140</v>
+      </c>
+      <c r="B1080" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1080" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1080" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1080" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1080" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1080" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1080" t="n">
+        <v>1997</v>
+      </c>
+      <c r="I1080" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="n">
+        <v>2141</v>
+      </c>
+      <c r="B1081" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1081" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1081" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1081" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1081" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1081" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1081" t="n">
+        <v>3957</v>
+      </c>
+      <c r="I1081" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="n">
+        <v>2142</v>
+      </c>
+      <c r="B1082" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1082" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1082" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1082" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1082" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1082" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1082" t="n">
+        <v>6040</v>
+      </c>
+      <c r="I1082" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="n">
+        <v>2143</v>
+      </c>
+      <c r="B1083" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1083" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1083" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1083" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1083" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1083" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1083" t="n">
+        <v>3890</v>
+      </c>
+      <c r="I1083" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="n">
+        <v>2144</v>
+      </c>
+      <c r="B1084" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1084" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1084" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1084" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1084" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1084" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1084" t="n">
+        <v>1964</v>
+      </c>
+      <c r="I1084" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="inlineStr">
+        <is>
+          <t>00002145</t>
+        </is>
+      </c>
+      <c r="B1085" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1085" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1085" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1085" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1085" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1085" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1085" t="n">
+        <v>3956</v>
+      </c>
+      <c r="I1085" t="n">
         <v>5000000</v>
       </c>
     </row>

--- a/ParticleSystem_database.xlsx
+++ b/ParticleSystem_database.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1085"/>
+  <dimension ref="A1:I1137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31888,10 +31888,8 @@
       </c>
     </row>
     <row r="1085">
-      <c r="A1085" t="inlineStr">
-        <is>
-          <t>00002145</t>
-        </is>
+      <c r="A1085" t="n">
+        <v>2145</v>
       </c>
       <c r="B1085" t="n">
         <v>0.4</v>
@@ -31915,6 +31913,1516 @@
         <v>3956</v>
       </c>
       <c r="I1085" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="n">
+        <v>2146</v>
+      </c>
+      <c r="B1086" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1086" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1086" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1086" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1086" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1086" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1086" t="n">
+        <v>6030</v>
+      </c>
+      <c r="I1086" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="n">
+        <v>2147</v>
+      </c>
+      <c r="B1087" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1087" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1087" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1087" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1087" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1087" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1087" t="n">
+        <v>4047</v>
+      </c>
+      <c r="I1087" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="n">
+        <v>2148</v>
+      </c>
+      <c r="B1088" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1088" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1088" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1088" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1088" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1088" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1088" t="n">
+        <v>2015</v>
+      </c>
+      <c r="I1088" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="n">
+        <v>2149</v>
+      </c>
+      <c r="B1089" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1089" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1089" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1089" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1089" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1089" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1089" t="n">
+        <v>3983</v>
+      </c>
+      <c r="I1089" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="n">
+        <v>2150</v>
+      </c>
+      <c r="B1090" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1090" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1090" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1090" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1090" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1090" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1090" t="n">
+        <v>5963</v>
+      </c>
+      <c r="I1090" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="n">
+        <v>2151</v>
+      </c>
+      <c r="B1091" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1091" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1091" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1091" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1091" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1091" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1091" t="n">
+        <v>4030</v>
+      </c>
+      <c r="I1091" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="n">
+        <v>2152</v>
+      </c>
+      <c r="B1092" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1092" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1092" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1092" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1092" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1092" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1092" t="n">
+        <v>1968</v>
+      </c>
+      <c r="I1092" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="n">
+        <v>2153</v>
+      </c>
+      <c r="B1093" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1093" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1093" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1093" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1093" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1093" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1093" t="n">
+        <v>3939</v>
+      </c>
+      <c r="I1093" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="n">
+        <v>2154</v>
+      </c>
+      <c r="B1094" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1094" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1094" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1094" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1094" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1094" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1094" t="n">
+        <v>5954</v>
+      </c>
+      <c r="I1094" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="n">
+        <v>2155</v>
+      </c>
+      <c r="B1095" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1095" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1095" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1095" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1095" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1095" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1095" t="n">
+        <v>4003</v>
+      </c>
+      <c r="I1095" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="n">
+        <v>2156</v>
+      </c>
+      <c r="B1096" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1096" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1096" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1096" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1096" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1096" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1096" t="n">
+        <v>1980</v>
+      </c>
+      <c r="I1096" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="n">
+        <v>2157</v>
+      </c>
+      <c r="B1097" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1097" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1097" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1097" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1097" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1097" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1097" t="n">
+        <v>3960</v>
+      </c>
+      <c r="I1097" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="n">
+        <v>2158</v>
+      </c>
+      <c r="B1098" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1098" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1098" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1098" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1098" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1098" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1098" t="n">
+        <v>5941</v>
+      </c>
+      <c r="I1098" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="n">
+        <v>2159</v>
+      </c>
+      <c r="B1099" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1099" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1099" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1099" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1099" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1099" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1099" t="n">
+        <v>4041</v>
+      </c>
+      <c r="I1099" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="n">
+        <v>2160</v>
+      </c>
+      <c r="B1100" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1100" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1100" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1100" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1100" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1100" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1100" t="n">
+        <v>2031</v>
+      </c>
+      <c r="I1100" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="n">
+        <v>2161</v>
+      </c>
+      <c r="B1101" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1101" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1101" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1101" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1101" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1101" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1101" t="n">
+        <v>3965</v>
+      </c>
+      <c r="I1101" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="n">
+        <v>2162</v>
+      </c>
+      <c r="B1102" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1102" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1102" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1102" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1102" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1102" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1102" t="n">
+        <v>6085</v>
+      </c>
+      <c r="I1102" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="n">
+        <v>2163</v>
+      </c>
+      <c r="B1103" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1103" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1103" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1103" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1103" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1103" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1103" t="n">
+        <v>4062</v>
+      </c>
+      <c r="I1103" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="n">
+        <v>2164</v>
+      </c>
+      <c r="B1104" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1104" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1104" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1104" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1104" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1104" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1104" t="n">
+        <v>2003</v>
+      </c>
+      <c r="I1104" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="n">
+        <v>2165</v>
+      </c>
+      <c r="B1105" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1105" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1105" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1105" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1105" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1105" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1105" t="n">
+        <v>4029</v>
+      </c>
+      <c r="I1105" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="n">
+        <v>2166</v>
+      </c>
+      <c r="B1106" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1106" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1106" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1106" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1106" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1106" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1106" t="n">
+        <v>4021</v>
+      </c>
+      <c r="I1106" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="n">
+        <v>2167</v>
+      </c>
+      <c r="B1107" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1107" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1107" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1107" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1107" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1107" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1107" t="n">
+        <v>6074</v>
+      </c>
+      <c r="I1107" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="n">
+        <v>2168</v>
+      </c>
+      <c r="B1108" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1108" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1108" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1108" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1108" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1108" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1108" t="n">
+        <v>2043</v>
+      </c>
+      <c r="I1108" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="n">
+        <v>2169</v>
+      </c>
+      <c r="B1109" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1109" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1109" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1109" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1109" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1109" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1109" t="n">
+        <v>4047</v>
+      </c>
+      <c r="I1109" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="n">
+        <v>2170</v>
+      </c>
+      <c r="B1110" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1110" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1110" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1110" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1110" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1110" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1110" t="n">
+        <v>3988</v>
+      </c>
+      <c r="I1110" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="n">
+        <v>2171</v>
+      </c>
+      <c r="B1111" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1111" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1111" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1111" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1111" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1111" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1111" t="n">
+        <v>6048</v>
+      </c>
+      <c r="I1111" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="n">
+        <v>2172</v>
+      </c>
+      <c r="B1112" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1112" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1112" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1112" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1112" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1112" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1112" t="n">
+        <v>1976</v>
+      </c>
+      <c r="I1112" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="n">
+        <v>2173</v>
+      </c>
+      <c r="B1113" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1113" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1113" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1113" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1113" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1113" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1113" t="n">
+        <v>3946</v>
+      </c>
+      <c r="I1113" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="n">
+        <v>2174</v>
+      </c>
+      <c r="B1114" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1114" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1114" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1114" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1114" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1114" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1114" t="n">
+        <v>4008</v>
+      </c>
+      <c r="I1114" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="n">
+        <v>2175</v>
+      </c>
+      <c r="B1115" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1115" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1115" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1115" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1115" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1115" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1115" t="n">
+        <v>1996</v>
+      </c>
+      <c r="I1115" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="n">
+        <v>2176</v>
+      </c>
+      <c r="B1116" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1116" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1116" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1116" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1116" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1116" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1116" t="n">
+        <v>5986</v>
+      </c>
+      <c r="I1116" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="n">
+        <v>2177</v>
+      </c>
+      <c r="B1117" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1117" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1117" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1117" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1117" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1117" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1117" t="n">
+        <v>4014</v>
+      </c>
+      <c r="I1117" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="n">
+        <v>2178</v>
+      </c>
+      <c r="B1118" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1118" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1118" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1118" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1118" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1118" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1118" t="n">
+        <v>4011</v>
+      </c>
+      <c r="I1118" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="n">
+        <v>2179</v>
+      </c>
+      <c r="B1119" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1119" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1119" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1119" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1119" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1119" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1119" t="n">
+        <v>2002</v>
+      </c>
+      <c r="I1119" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="n">
+        <v>2180</v>
+      </c>
+      <c r="B1120" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1120" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1120" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1120" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1120" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1120" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1120" t="n">
+        <v>5962</v>
+      </c>
+      <c r="I1120" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="n">
+        <v>2181</v>
+      </c>
+      <c r="B1121" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1121" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1121" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1121" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1121" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1121" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1121" t="n">
+        <v>3992</v>
+      </c>
+      <c r="I1121" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="n">
+        <v>2182</v>
+      </c>
+      <c r="B1122" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1122" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1122" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1122" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1122" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1122" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1122" t="n">
+        <v>3906</v>
+      </c>
+      <c r="I1122" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="n">
+        <v>2183</v>
+      </c>
+      <c r="B1123" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1123" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1123" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1123" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1123" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1123" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1123" t="n">
+        <v>1929</v>
+      </c>
+      <c r="I1123" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="n">
+        <v>2184</v>
+      </c>
+      <c r="B1124" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1124" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1124" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1124" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1124" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1124" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1124" t="n">
+        <v>6029</v>
+      </c>
+      <c r="I1124" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="n">
+        <v>2185</v>
+      </c>
+      <c r="B1125" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1125" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1125" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1125" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1125" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1125" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1125" t="n">
+        <v>3968</v>
+      </c>
+      <c r="I1125" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="n">
+        <v>2186</v>
+      </c>
+      <c r="B1126" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1126" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1126" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1126" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1126" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1126" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1126" t="n">
+        <v>3936</v>
+      </c>
+      <c r="I1126" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="n">
+        <v>2187</v>
+      </c>
+      <c r="B1127" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1127" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1127" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1127" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1127" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1127" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1127" t="n">
+        <v>1999</v>
+      </c>
+      <c r="I1127" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="n">
+        <v>2188</v>
+      </c>
+      <c r="B1128" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1128" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1128" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1128" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1128" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1128" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1128" t="n">
+        <v>5860</v>
+      </c>
+      <c r="I1128" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="n">
+        <v>2189</v>
+      </c>
+      <c r="B1129" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1129" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1129" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1129" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1129" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1129" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1129" t="n">
+        <v>3994</v>
+      </c>
+      <c r="I1129" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="n">
+        <v>2190</v>
+      </c>
+      <c r="B1130" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1130" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1130" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1130" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1130" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1130" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1130" t="n">
+        <v>3997</v>
+      </c>
+      <c r="I1130" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="n">
+        <v>2191</v>
+      </c>
+      <c r="B1131" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1131" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1131" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1131" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1131" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1131" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1131" t="n">
+        <v>2026</v>
+      </c>
+      <c r="I1131" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="n">
+        <v>2192</v>
+      </c>
+      <c r="B1132" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1132" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1132" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1132" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1132" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1132" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1132" t="n">
+        <v>6003</v>
+      </c>
+      <c r="I1132" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="n">
+        <v>2193</v>
+      </c>
+      <c r="B1133" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1133" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1133" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1133" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1133" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1133" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1133" t="n">
+        <v>4095</v>
+      </c>
+      <c r="I1133" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="n">
+        <v>2194</v>
+      </c>
+      <c r="B1134" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1134" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1134" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1134" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1134" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1134" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1134" t="n">
+        <v>4079</v>
+      </c>
+      <c r="I1134" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="n">
+        <v>2195</v>
+      </c>
+      <c r="B1135" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1135" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1135" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1135" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1135" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1135" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1135" t="n">
+        <v>1966</v>
+      </c>
+      <c r="I1135" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="n">
+        <v>2196</v>
+      </c>
+      <c r="B1136" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1136" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1136" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1136" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1136" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1136" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1136" t="n">
+        <v>5998</v>
+      </c>
+      <c r="I1136" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="inlineStr">
+        <is>
+          <t>00002197</t>
+        </is>
+      </c>
+      <c r="B1137" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1137" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1137" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1137" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1137" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1137" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1137" t="n">
+        <v>4084</v>
+      </c>
+      <c r="I1137" t="n">
         <v>5000000</v>
       </c>
     </row>

--- a/ParticleSystem_database.xlsx
+++ b/ParticleSystem_database.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1137"/>
+  <dimension ref="A1:I1192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33396,10 +33396,8 @@
       </c>
     </row>
     <row r="1137">
-      <c r="A1137" t="inlineStr">
-        <is>
-          <t>00002197</t>
-        </is>
+      <c r="A1137" t="n">
+        <v>2197</v>
       </c>
       <c r="B1137" t="n">
         <v>0.4</v>
@@ -33423,6 +33421,1603 @@
         <v>4084</v>
       </c>
       <c r="I1137" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="n">
+        <v>2198</v>
+      </c>
+      <c r="B1138" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1138" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1138" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1138" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1138" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1138" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1138" t="n">
+        <v>3998</v>
+      </c>
+      <c r="I1138" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="n">
+        <v>2199</v>
+      </c>
+      <c r="B1139" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1139" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1139" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1139" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1139" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1139" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1139" t="n">
+        <v>1939</v>
+      </c>
+      <c r="I1139" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B1140" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1140" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1140" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1140" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1140" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1140" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1140" t="n">
+        <v>5889</v>
+      </c>
+      <c r="I1140" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="n">
+        <v>2201</v>
+      </c>
+      <c r="B1141" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1141" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1141" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1141" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1141" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1141" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1141" t="n">
+        <v>4001</v>
+      </c>
+      <c r="I1141" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="n">
+        <v>2202</v>
+      </c>
+      <c r="B1142" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1142" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1142" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1142" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1142" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1142" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1142" t="n">
+        <v>3931</v>
+      </c>
+      <c r="I1142" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="n">
+        <v>2203</v>
+      </c>
+      <c r="B1143" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1143" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1143" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1143" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1143" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1143" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1143" t="n">
+        <v>1994</v>
+      </c>
+      <c r="I1143" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="n">
+        <v>2204</v>
+      </c>
+      <c r="B1144" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1144" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1144" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1144" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1144" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1144" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1144" t="n">
+        <v>5992</v>
+      </c>
+      <c r="I1144" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="n">
+        <v>2205</v>
+      </c>
+      <c r="B1145" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1145" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1145" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1145" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1145" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1145" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1145" t="n">
+        <v>4005</v>
+      </c>
+      <c r="I1145" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="n">
+        <v>2206</v>
+      </c>
+      <c r="B1146" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1146" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1146" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1146" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1146" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1146" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1146" t="n">
+        <v>3908</v>
+      </c>
+      <c r="I1146" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="n">
+        <v>2207</v>
+      </c>
+      <c r="B1147" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1147" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1147" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1147" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1147" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1147" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1147" t="n">
+        <v>2017</v>
+      </c>
+      <c r="I1147" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="n">
+        <v>2208</v>
+      </c>
+      <c r="B1148" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1148" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1148" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1148" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1148" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1148" t="n">
+        <v>5950</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="n">
+        <v>2209</v>
+      </c>
+      <c r="B1149" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1149" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1149" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1149" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1149" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1149" t="n">
+        <v>3982</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="n">
+        <v>2210</v>
+      </c>
+      <c r="B1150" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1150" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1150" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1150" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1150" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1150" t="n">
+        <v>4147</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="n">
+        <v>2211</v>
+      </c>
+      <c r="B1151" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1151" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1151" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1151" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1151" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1151" t="n">
+        <v>2009</v>
+      </c>
+      <c r="I1151" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="n">
+        <v>2212</v>
+      </c>
+      <c r="B1152" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1152" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1152" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1152" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1152" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1152" t="n">
+        <v>5958</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="n">
+        <v>2213</v>
+      </c>
+      <c r="B1153" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1153" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1153" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1153" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1153" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1153" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1153" t="n">
+        <v>3919</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="n">
+        <v>2214</v>
+      </c>
+      <c r="B1154" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1154" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1154" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1154" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1154" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1154" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1154" t="n">
+        <v>4019</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="n">
+        <v>2215</v>
+      </c>
+      <c r="B1155" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1155" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1155" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1155" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1155" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1155" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1155" t="n">
+        <v>1963</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="n">
+        <v>2216</v>
+      </c>
+      <c r="B1156" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1156" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1156" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1156" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1156" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1156" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1156" t="n">
+        <v>6058</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="n">
+        <v>2217</v>
+      </c>
+      <c r="B1157" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1157" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1157" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1157" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1157" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1157" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1157" t="n">
+        <v>3997</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="n">
+        <v>2218</v>
+      </c>
+      <c r="B1158" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1158" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1158" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1158" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1158" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1158" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1158" t="n">
+        <v>3975</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="n">
+        <v>2219</v>
+      </c>
+      <c r="B1159" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1159" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1159" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1159" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1159" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1159" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1159" t="n">
+        <v>2002</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="n">
+        <v>2220</v>
+      </c>
+      <c r="B1160" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1160" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1160" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1160" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1160" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1160" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1160" t="n">
+        <v>6026</v>
+      </c>
+      <c r="I1160" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="n">
+        <v>2221</v>
+      </c>
+      <c r="B1161" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1161" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1161" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1161" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1161" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1161" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1161" t="n">
+        <v>3925</v>
+      </c>
+      <c r="I1161" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="n">
+        <v>2222</v>
+      </c>
+      <c r="B1162" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1162" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1162" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1162" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1162" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1162" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1162" t="n">
+        <v>4066</v>
+      </c>
+      <c r="I1162" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="n">
+        <v>2223</v>
+      </c>
+      <c r="B1163" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1163" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1163" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1163" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1163" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1163" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1163" t="n">
+        <v>2075</v>
+      </c>
+      <c r="I1163" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="n">
+        <v>2224</v>
+      </c>
+      <c r="B1164" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1164" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1164" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1164" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1164" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1164" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1164" t="n">
+        <v>5979</v>
+      </c>
+      <c r="I1164" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="n">
+        <v>2225</v>
+      </c>
+      <c r="B1165" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1165" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1165" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1165" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1165" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1165" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1165" t="n">
+        <v>3952</v>
+      </c>
+      <c r="I1165" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="n">
+        <v>2226</v>
+      </c>
+      <c r="B1166" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1166" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1166" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1166" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1166" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1166" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1166" t="n">
+        <v>4012</v>
+      </c>
+      <c r="I1166" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="n">
+        <v>2227</v>
+      </c>
+      <c r="B1167" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1167" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1167" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1167" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1167" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1167" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1167" t="n">
+        <v>2125</v>
+      </c>
+      <c r="I1167" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="n">
+        <v>2228</v>
+      </c>
+      <c r="B1168" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1168" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1168" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1168" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1168" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1168" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1168" t="n">
+        <v>6005</v>
+      </c>
+      <c r="I1168" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="n">
+        <v>2229</v>
+      </c>
+      <c r="B1169" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1169" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1169" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1169" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1169" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1169" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1169" t="n">
+        <v>4008</v>
+      </c>
+      <c r="I1169" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="n">
+        <v>2230</v>
+      </c>
+      <c r="B1170" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1170" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1170" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1170" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1170" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1170" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1170" t="n">
+        <v>3991</v>
+      </c>
+      <c r="I1170" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="n">
+        <v>2231</v>
+      </c>
+      <c r="B1171" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1171" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1171" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1171" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1171" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1171" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1171" t="n">
+        <v>1906</v>
+      </c>
+      <c r="I1171" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="n">
+        <v>2232</v>
+      </c>
+      <c r="B1172" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1172" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1172" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1172" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1172" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1172" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1172" t="n">
+        <v>6054</v>
+      </c>
+      <c r="I1172" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="n">
+        <v>2233</v>
+      </c>
+      <c r="B1173" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1173" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1173" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1173" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1173" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1173" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1173" t="n">
+        <v>3991</v>
+      </c>
+      <c r="I1173" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="n">
+        <v>2234</v>
+      </c>
+      <c r="B1174" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1174" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1174" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1174" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1174" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1174" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1174" t="n">
+        <v>4004</v>
+      </c>
+      <c r="I1174" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="n">
+        <v>2235</v>
+      </c>
+      <c r="B1175" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1175" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1175" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1175" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1175" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1175" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1175" t="n">
+        <v>1889</v>
+      </c>
+      <c r="I1175" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="n">
+        <v>2236</v>
+      </c>
+      <c r="B1176" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1176" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1176" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1176" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1176" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1176" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1176" t="n">
+        <v>5928</v>
+      </c>
+      <c r="I1176" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="n">
+        <v>2237</v>
+      </c>
+      <c r="B1177" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1177" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1177" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1177" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1177" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1177" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1177" t="n">
+        <v>3981</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="n">
+        <v>2238</v>
+      </c>
+      <c r="B1178" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1178" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1178" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1178" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1178" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1178" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1178" t="n">
+        <v>3998</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="n">
+        <v>2239</v>
+      </c>
+      <c r="B1179" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1179" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1179" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1179" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1179" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1179" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1179" t="n">
+        <v>1968</v>
+      </c>
+      <c r="I1179" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="n">
+        <v>2240</v>
+      </c>
+      <c r="B1180" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1180" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1180" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1180" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1180" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1180" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1180" t="n">
+        <v>6035</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="n">
+        <v>2241</v>
+      </c>
+      <c r="B1181" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1181" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1181" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1181" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1181" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1181" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1181" t="n">
+        <v>3957</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="n">
+        <v>2242</v>
+      </c>
+      <c r="B1182" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1182" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1182" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1182" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1182" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1182" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1182" t="n">
+        <v>3958</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="n">
+        <v>2243</v>
+      </c>
+      <c r="B1183" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1183" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1183" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1183" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1183" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1183" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1183" t="n">
+        <v>2002</v>
+      </c>
+      <c r="I1183" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="n">
+        <v>2244</v>
+      </c>
+      <c r="B1184" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1184" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1184" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1184" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1184" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1184" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1184" t="n">
+        <v>5950</v>
+      </c>
+      <c r="I1184" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="n">
+        <v>2245</v>
+      </c>
+      <c r="B1185" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1185" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1185" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1185" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1185" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1185" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1185" t="n">
+        <v>4090</v>
+      </c>
+      <c r="I1185" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="n">
+        <v>2246</v>
+      </c>
+      <c r="B1186" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1186" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1186" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1186" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1186" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1186" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1186" t="n">
+        <v>4050</v>
+      </c>
+      <c r="I1186" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="n">
+        <v>2247</v>
+      </c>
+      <c r="B1187" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1187" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1187" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1187" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1187" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1187" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1187" t="n">
+        <v>2001</v>
+      </c>
+      <c r="I1187" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="n">
+        <v>2248</v>
+      </c>
+      <c r="B1188" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1188" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1188" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1188" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1188" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1188" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1188" t="n">
+        <v>6078</v>
+      </c>
+      <c r="I1188" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="n">
+        <v>2249</v>
+      </c>
+      <c r="B1189" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1189" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1189" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1189" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1189" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1189" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1189" t="n">
+        <v>3998</v>
+      </c>
+      <c r="I1189" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="n">
+        <v>2250</v>
+      </c>
+      <c r="B1190" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1190" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1190" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1190" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1190" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1190" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1190" t="n">
+        <v>3999</v>
+      </c>
+      <c r="I1190" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="n">
+        <v>2251</v>
+      </c>
+      <c r="B1191" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1191" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1191" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1191" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1191" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1191" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1191" t="n">
+        <v>1946</v>
+      </c>
+      <c r="I1191" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="inlineStr">
+        <is>
+          <t>00002252</t>
+        </is>
+      </c>
+      <c r="B1192" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1192" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1192" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1192" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1192" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1192" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1192" t="n">
+        <v>6003</v>
+      </c>
+      <c r="I1192" t="n">
         <v>5000000</v>
       </c>
     </row>

--- a/ParticleSystem_database.xlsx
+++ b/ParticleSystem_database.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1192"/>
+  <dimension ref="A1:I1341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34991,10 +34991,8 @@
       </c>
     </row>
     <row r="1192">
-      <c r="A1192" t="inlineStr">
-        <is>
-          <t>00002252</t>
-        </is>
+      <c r="A1192" t="n">
+        <v>2252</v>
       </c>
       <c r="B1192" t="n">
         <v>0.6</v>
@@ -35018,6 +35016,4329 @@
         <v>6003</v>
       </c>
       <c r="I1192" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="n">
+        <v>2253</v>
+      </c>
+      <c r="B1193" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1193" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1193" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1193" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1193" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1193" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1193" t="n">
+        <v>3931</v>
+      </c>
+      <c r="I1193" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="n">
+        <v>2254</v>
+      </c>
+      <c r="B1194" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1194" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1194" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1194" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1194" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1194" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1194" t="n">
+        <v>3935</v>
+      </c>
+      <c r="I1194" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="n">
+        <v>2255</v>
+      </c>
+      <c r="B1195" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1195" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1195" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1195" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1195" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1195" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1195" t="n">
+        <v>2014</v>
+      </c>
+      <c r="I1195" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="n">
+        <v>2256</v>
+      </c>
+      <c r="B1196" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1196" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1196" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1196" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1196" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1196" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1196" t="n">
+        <v>6018</v>
+      </c>
+      <c r="I1196" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="n">
+        <v>2257</v>
+      </c>
+      <c r="B1197" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1197" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1197" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1197" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1197" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1197" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1197" t="n">
+        <v>4010</v>
+      </c>
+      <c r="I1197" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="n">
+        <v>2258</v>
+      </c>
+      <c r="B1198" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1198" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1198" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1198" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1198" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1198" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1198" t="n">
+        <v>4011</v>
+      </c>
+      <c r="I1198" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="n">
+        <v>2259</v>
+      </c>
+      <c r="B1199" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1199" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1199" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1199" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1199" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1199" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1199" t="n">
+        <v>1998</v>
+      </c>
+      <c r="I1199" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>2260</v>
+      </c>
+      <c r="B1200" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1200" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1200" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1200" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>6042</v>
+      </c>
+      <c r="I1200" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>2261</v>
+      </c>
+      <c r="B1201" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1201" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1201" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1201" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>3942</v>
+      </c>
+      <c r="I1201" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>2262</v>
+      </c>
+      <c r="B1202" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1202" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1202" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1202" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>4025</v>
+      </c>
+      <c r="I1202" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>2263</v>
+      </c>
+      <c r="B1203" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1203" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1203" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1203" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>2002</v>
+      </c>
+      <c r="I1203" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>2264</v>
+      </c>
+      <c r="B1204" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1204" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1204" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1204" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>6051</v>
+      </c>
+      <c r="I1204" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>2265</v>
+      </c>
+      <c r="B1205" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1205" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1205" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1205" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>4122</v>
+      </c>
+      <c r="I1205" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>2266</v>
+      </c>
+      <c r="B1206" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1206" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1206" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1206" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>4008</v>
+      </c>
+      <c r="I1206" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>2267</v>
+      </c>
+      <c r="B1207" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1207" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1207" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1207" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>2040</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>2268</v>
+      </c>
+      <c r="B1208" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1208" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1208" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1208" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>6038</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>2269</v>
+      </c>
+      <c r="B1209" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1209" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1209" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1209" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>3991</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>2270</v>
+      </c>
+      <c r="B1210" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1210" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1210" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1210" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>3996</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>2271</v>
+      </c>
+      <c r="B1211" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1211" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1211" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1211" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>1962</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>2272</v>
+      </c>
+      <c r="B1212" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1212" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1212" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>6007</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>2273</v>
+      </c>
+      <c r="B1213" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1213" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1213" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>4030</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>2274</v>
+      </c>
+      <c r="B1214" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1214" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1214" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>3994</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>2275</v>
+      </c>
+      <c r="B1215" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1215" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1215" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>1908</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>2276</v>
+      </c>
+      <c r="B1216" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1216" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1216" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>6039</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>2277</v>
+      </c>
+      <c r="B1217" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1217" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1217" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>4072</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>2278</v>
+      </c>
+      <c r="B1218" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1218" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1218" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>3964</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>2279</v>
+      </c>
+      <c r="B1219" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1219" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1219" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1945</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>2280</v>
+      </c>
+      <c r="B1220" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1220" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1220" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>6030</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>2281</v>
+      </c>
+      <c r="B1221" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1221" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1221" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>4011</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>2282</v>
+      </c>
+      <c r="B1222" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1222" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1222" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>4043</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>2283</v>
+      </c>
+      <c r="B1223" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1223" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1223" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>2036</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>2284</v>
+      </c>
+      <c r="B1224" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1224" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1224" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>5978</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>2285</v>
+      </c>
+      <c r="B1225" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1225" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1225" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>3992</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>2286</v>
+      </c>
+      <c r="B1226" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1226" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1226" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>3987</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>2287</v>
+      </c>
+      <c r="B1227" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1227" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1227" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>1996</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>2288</v>
+      </c>
+      <c r="B1228" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1228" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1228" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>6032</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>2289</v>
+      </c>
+      <c r="B1229" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1229" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1229" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>4013</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>2290</v>
+      </c>
+      <c r="B1230" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1230" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1230" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>4012</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>2291</v>
+      </c>
+      <c r="B1231" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1231" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1231" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>1996</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>2292</v>
+      </c>
+      <c r="B1232" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1232" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1232" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>5990</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>2293</v>
+      </c>
+      <c r="B1233" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1233" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1233" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>4017</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>2294</v>
+      </c>
+      <c r="B1234" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1234" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1234" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>4062</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>2295</v>
+      </c>
+      <c r="B1235" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1235" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1235" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>2013</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>2296</v>
+      </c>
+      <c r="B1236" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1236" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1236" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>6079</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>2297</v>
+      </c>
+      <c r="B1237" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1237" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1237" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>3986</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>2298</v>
+      </c>
+      <c r="B1238" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1238" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1238" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>4029</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>2299</v>
+      </c>
+      <c r="B1239" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1239" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1239" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>2070</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B1240" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1240" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1240" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>6064</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>2301</v>
+      </c>
+      <c r="B1241" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1241" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1241" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>4046</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" t="n">
+        <v>2302</v>
+      </c>
+      <c r="B1242" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1242" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1242" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1242" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1242" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1242" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1242" t="n">
+        <v>3985</v>
+      </c>
+      <c r="I1242" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" t="n">
+        <v>2303</v>
+      </c>
+      <c r="B1243" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1243" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1243" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1243" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1243" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1243" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1243" t="n">
+        <v>1997</v>
+      </c>
+      <c r="I1243" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" t="n">
+        <v>2304</v>
+      </c>
+      <c r="B1244" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1244" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1244" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1244" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1244" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1244" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1244" t="n">
+        <v>5913</v>
+      </c>
+      <c r="I1244" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" t="n">
+        <v>2305</v>
+      </c>
+      <c r="B1245" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1245" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1245" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1245" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1245" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1245" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1245" t="n">
+        <v>4004</v>
+      </c>
+      <c r="I1245" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" t="n">
+        <v>2306</v>
+      </c>
+      <c r="B1246" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1246" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1246" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1246" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1246" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1246" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1246" t="n">
+        <v>4104</v>
+      </c>
+      <c r="I1246" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" t="n">
+        <v>2307</v>
+      </c>
+      <c r="B1247" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1247" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1247" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1247" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1247" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1247" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1247" t="n">
+        <v>2057</v>
+      </c>
+      <c r="I1247" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" t="n">
+        <v>2308</v>
+      </c>
+      <c r="B1248" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1248" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1248" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1248" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1248" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1248" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1248" t="n">
+        <v>4058</v>
+      </c>
+      <c r="I1248" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" t="n">
+        <v>2309</v>
+      </c>
+      <c r="B1249" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1249" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1249" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1249" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1249" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1249" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1249" t="n">
+        <v>6026</v>
+      </c>
+      <c r="I1249" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" t="n">
+        <v>2310</v>
+      </c>
+      <c r="B1250" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1250" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1250" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1250" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1250" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1250" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1250" t="n">
+        <v>3962</v>
+      </c>
+      <c r="I1250" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" t="n">
+        <v>2311</v>
+      </c>
+      <c r="B1251" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1251" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1251" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1251" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1251" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1251" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1251" t="n">
+        <v>2019</v>
+      </c>
+      <c r="I1251" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" t="n">
+        <v>2312</v>
+      </c>
+      <c r="B1252" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1252" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1252" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1252" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1252" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1252" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1252" t="n">
+        <v>3999</v>
+      </c>
+      <c r="I1252" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" t="n">
+        <v>2313</v>
+      </c>
+      <c r="B1253" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1253" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1253" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1253" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1253" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1253" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1253" t="n">
+        <v>5966</v>
+      </c>
+      <c r="I1253" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" t="n">
+        <v>2314</v>
+      </c>
+      <c r="B1254" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1254" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1254" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1254" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1254" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1254" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1254" t="n">
+        <v>3985</v>
+      </c>
+      <c r="I1254" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" t="n">
+        <v>2315</v>
+      </c>
+      <c r="B1255" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1255" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1255" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1255" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1255" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1255" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1255" t="n">
+        <v>1987</v>
+      </c>
+      <c r="I1255" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" t="n">
+        <v>2316</v>
+      </c>
+      <c r="B1256" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1256" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1256" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1256" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1256" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1256" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1256" t="n">
+        <v>3988</v>
+      </c>
+      <c r="I1256" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" t="n">
+        <v>2317</v>
+      </c>
+      <c r="B1257" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1257" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1257" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1257" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1257" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1257" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1257" t="n">
+        <v>5999</v>
+      </c>
+      <c r="I1257" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" t="n">
+        <v>2318</v>
+      </c>
+      <c r="B1258" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1258" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1258" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1258" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1258" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1258" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1258" t="n">
+        <v>3906</v>
+      </c>
+      <c r="I1258" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" t="n">
+        <v>2319</v>
+      </c>
+      <c r="B1259" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1259" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1259" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1259" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1259" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1259" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1259" t="n">
+        <v>1960</v>
+      </c>
+      <c r="I1259" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" t="n">
+        <v>2320</v>
+      </c>
+      <c r="B1260" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1260" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1260" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1260" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1260" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1260" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1260" t="n">
+        <v>4001</v>
+      </c>
+      <c r="I1260" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" t="n">
+        <v>2321</v>
+      </c>
+      <c r="B1261" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1261" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1261" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1261" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1261" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1261" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1261" t="n">
+        <v>5893</v>
+      </c>
+      <c r="I1261" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" t="n">
+        <v>2322</v>
+      </c>
+      <c r="B1262" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1262" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1262" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1262" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1262" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1262" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1262" t="n">
+        <v>3941</v>
+      </c>
+      <c r="I1262" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" t="n">
+        <v>2323</v>
+      </c>
+      <c r="B1263" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1263" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1263" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1263" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1263" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1263" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1263" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1263" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" t="n">
+        <v>2324</v>
+      </c>
+      <c r="B1264" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1264" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1264" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1264" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1264" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1264" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1264" t="n">
+        <v>3977</v>
+      </c>
+      <c r="I1264" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" t="n">
+        <v>2325</v>
+      </c>
+      <c r="B1265" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1265" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1265" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1265" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1265" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1265" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1265" t="n">
+        <v>5912</v>
+      </c>
+      <c r="I1265" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" t="n">
+        <v>2326</v>
+      </c>
+      <c r="B1266" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1266" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1266" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1266" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1266" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1266" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1266" t="n">
+        <v>3973</v>
+      </c>
+      <c r="I1266" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" t="n">
+        <v>2327</v>
+      </c>
+      <c r="B1267" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1267" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1267" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1267" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1267" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1267" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1267" t="n">
+        <v>1929</v>
+      </c>
+      <c r="I1267" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" t="n">
+        <v>2328</v>
+      </c>
+      <c r="B1268" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1268" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1268" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1268" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1268" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1268" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1268" t="n">
+        <v>3988</v>
+      </c>
+      <c r="I1268" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" t="n">
+        <v>2329</v>
+      </c>
+      <c r="B1269" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1269" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1269" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1269" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1269" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1269" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1269" t="n">
+        <v>6092</v>
+      </c>
+      <c r="I1269" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" t="n">
+        <v>2330</v>
+      </c>
+      <c r="B1270" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1270" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1270" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1270" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1270" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1270" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1270" t="n">
+        <v>3945</v>
+      </c>
+      <c r="I1270" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" t="n">
+        <v>2331</v>
+      </c>
+      <c r="B1271" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1271" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1271" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1271" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1271" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1271" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1271" t="n">
+        <v>1980</v>
+      </c>
+      <c r="I1271" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" t="n">
+        <v>2332</v>
+      </c>
+      <c r="B1272" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1272" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1272" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1272" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1272" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1272" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1272" t="n">
+        <v>3973</v>
+      </c>
+      <c r="I1272" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" t="n">
+        <v>2333</v>
+      </c>
+      <c r="B1273" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1273" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1273" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1273" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1273" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1273" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1273" t="n">
+        <v>6017</v>
+      </c>
+      <c r="I1273" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" t="n">
+        <v>2334</v>
+      </c>
+      <c r="B1274" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1274" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1274" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1274" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1274" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1274" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1274" t="n">
+        <v>4146</v>
+      </c>
+      <c r="I1274" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" t="n">
+        <v>2335</v>
+      </c>
+      <c r="B1275" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1275" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1275" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1275" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1275" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1275" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1275" t="n">
+        <v>1978</v>
+      </c>
+      <c r="I1275" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" t="n">
+        <v>2336</v>
+      </c>
+      <c r="B1276" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1276" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1276" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1276" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1276" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1276" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1276" t="n">
+        <v>3974</v>
+      </c>
+      <c r="I1276" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" t="n">
+        <v>2337</v>
+      </c>
+      <c r="B1277" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1277" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1277" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1277" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1277" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1277" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1277" t="n">
+        <v>6091</v>
+      </c>
+      <c r="I1277" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" t="n">
+        <v>2338</v>
+      </c>
+      <c r="B1278" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1278" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1278" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1278" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1278" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1278" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1278" t="n">
+        <v>3992</v>
+      </c>
+      <c r="I1278" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" t="n">
+        <v>2339</v>
+      </c>
+      <c r="B1279" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1279" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1279" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1279" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1279" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1279" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1279" t="n">
+        <v>2021</v>
+      </c>
+      <c r="I1279" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" t="n">
+        <v>2340</v>
+      </c>
+      <c r="B1280" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1280" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1280" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1280" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1280" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1280" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1280" t="n">
+        <v>3997</v>
+      </c>
+      <c r="I1280" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" t="n">
+        <v>2341</v>
+      </c>
+      <c r="B1281" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1281" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1281" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1281" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1281" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1281" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1281" t="n">
+        <v>6003</v>
+      </c>
+      <c r="I1281" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" t="n">
+        <v>2342</v>
+      </c>
+      <c r="B1282" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1282" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1282" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1282" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1282" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1282" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1282" t="n">
+        <v>4047</v>
+      </c>
+      <c r="I1282" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" t="n">
+        <v>2343</v>
+      </c>
+      <c r="B1283" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1283" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1283" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1283" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1283" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1283" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1283" t="n">
+        <v>1941</v>
+      </c>
+      <c r="I1283" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" t="n">
+        <v>2344</v>
+      </c>
+      <c r="B1284" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1284" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1284" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1284" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1284" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1284" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1284" t="n">
+        <v>4033</v>
+      </c>
+      <c r="I1284" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" t="n">
+        <v>2345</v>
+      </c>
+      <c r="B1285" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1285" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1285" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1285" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1285" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1285" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1285" t="n">
+        <v>6032</v>
+      </c>
+      <c r="I1285" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" t="n">
+        <v>2346</v>
+      </c>
+      <c r="B1286" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1286" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1286" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1286" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1286" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1286" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1286" t="n">
+        <v>3988</v>
+      </c>
+      <c r="I1286" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" t="n">
+        <v>2347</v>
+      </c>
+      <c r="B1287" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1287" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1287" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1287" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1287" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1287" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1287" t="n">
+        <v>2003</v>
+      </c>
+      <c r="I1287" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" t="n">
+        <v>2348</v>
+      </c>
+      <c r="B1288" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1288" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1288" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1288" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1288" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1288" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1288" t="n">
+        <v>3931</v>
+      </c>
+      <c r="I1288" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" t="n">
+        <v>2349</v>
+      </c>
+      <c r="B1289" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1289" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1289" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1289" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1289" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1289" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1289" t="n">
+        <v>6023</v>
+      </c>
+      <c r="I1289" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" t="n">
+        <v>2350</v>
+      </c>
+      <c r="B1290" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1290" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1290" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1290" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1290" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1290" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1290" t="n">
+        <v>4043</v>
+      </c>
+      <c r="I1290" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" t="n">
+        <v>2351</v>
+      </c>
+      <c r="B1291" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1291" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1291" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1291" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1291" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1291" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1291" t="n">
+        <v>1999</v>
+      </c>
+      <c r="I1291" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" t="n">
+        <v>2352</v>
+      </c>
+      <c r="B1292" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1292" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1292" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1292" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1292" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1292" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1292" t="n">
+        <v>4081</v>
+      </c>
+      <c r="I1292" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" t="n">
+        <v>2353</v>
+      </c>
+      <c r="B1293" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1293" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1293" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1293" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1293" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1293" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1293" t="n">
+        <v>5901</v>
+      </c>
+      <c r="I1293" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" t="n">
+        <v>2354</v>
+      </c>
+      <c r="B1294" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1294" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1294" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1294" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1294" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1294" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1294" t="n">
+        <v>3986</v>
+      </c>
+      <c r="I1294" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" t="n">
+        <v>2355</v>
+      </c>
+      <c r="B1295" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1295" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1295" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1295" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1295" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1295" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1295" t="n">
+        <v>1994</v>
+      </c>
+      <c r="I1295" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" t="n">
+        <v>2356</v>
+      </c>
+      <c r="B1296" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1296" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1296" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1296" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1296" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1296" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1296" t="n">
+        <v>4005</v>
+      </c>
+      <c r="I1296" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" t="n">
+        <v>2357</v>
+      </c>
+      <c r="B1297" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1297" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1297" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1297" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1297" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1297" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1297" t="n">
+        <v>5992</v>
+      </c>
+      <c r="I1297" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" t="n">
+        <v>2358</v>
+      </c>
+      <c r="B1298" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1298" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1298" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1298" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1298" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1298" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1298" t="n">
+        <v>3971</v>
+      </c>
+      <c r="I1298" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" t="n">
+        <v>2359</v>
+      </c>
+      <c r="B1299" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1299" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1299" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1299" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1299" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1299" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1299" t="n">
+        <v>2049</v>
+      </c>
+      <c r="I1299" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" t="n">
+        <v>2360</v>
+      </c>
+      <c r="B1300" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1300" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1300" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1300" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1300" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1300" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1300" t="n">
+        <v>3944</v>
+      </c>
+      <c r="I1300" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" t="n">
+        <v>2361</v>
+      </c>
+      <c r="B1301" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1301" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1301" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1301" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1301" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1301" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1301" t="n">
+        <v>5992</v>
+      </c>
+      <c r="I1301" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" t="n">
+        <v>2362</v>
+      </c>
+      <c r="B1302" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1302" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1302" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1302" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1302" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1302" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1302" t="n">
+        <v>4052</v>
+      </c>
+      <c r="I1302" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" t="n">
+        <v>2363</v>
+      </c>
+      <c r="B1303" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1303" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1303" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1303" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1303" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1303" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1303" t="n">
+        <v>4018</v>
+      </c>
+      <c r="I1303" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" t="n">
+        <v>2364</v>
+      </c>
+      <c r="B1304" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1304" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1304" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1304" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1304" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1304" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1304" t="n">
+        <v>1966</v>
+      </c>
+      <c r="I1304" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" t="n">
+        <v>2365</v>
+      </c>
+      <c r="B1305" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1305" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1305" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1305" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1305" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1305" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1305" t="n">
+        <v>5933</v>
+      </c>
+      <c r="I1305" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" t="n">
+        <v>2366</v>
+      </c>
+      <c r="B1306" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1306" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1306" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1306" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1306" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1306" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1306" t="n">
+        <v>3893</v>
+      </c>
+      <c r="I1306" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" t="n">
+        <v>2367</v>
+      </c>
+      <c r="B1307" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1307" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1307" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1307" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1307" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1307" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1307" t="n">
+        <v>3914</v>
+      </c>
+      <c r="I1307" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" t="n">
+        <v>2368</v>
+      </c>
+      <c r="B1308" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1308" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1308" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1308" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1308" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1308" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1308" t="n">
+        <v>2005</v>
+      </c>
+      <c r="I1308" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" t="n">
+        <v>2369</v>
+      </c>
+      <c r="B1309" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1309" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1309" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1309" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1309" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1309" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1309" t="n">
+        <v>6078</v>
+      </c>
+      <c r="I1309" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" t="n">
+        <v>2370</v>
+      </c>
+      <c r="B1310" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1310" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1310" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1310" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1310" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1310" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1310" t="n">
+        <v>4062</v>
+      </c>
+      <c r="I1310" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" t="n">
+        <v>2371</v>
+      </c>
+      <c r="B1311" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1311" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1311" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1311" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1311" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1311" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1311" t="n">
+        <v>3986</v>
+      </c>
+      <c r="I1311" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" t="n">
+        <v>2372</v>
+      </c>
+      <c r="B1312" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1312" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1312" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1312" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1312" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1312" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1312" t="n">
+        <v>1957</v>
+      </c>
+      <c r="I1312" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" t="n">
+        <v>2373</v>
+      </c>
+      <c r="B1313" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1313" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1313" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1313" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1313" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1313" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1313" t="n">
+        <v>6083</v>
+      </c>
+      <c r="I1313" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" t="n">
+        <v>2374</v>
+      </c>
+      <c r="B1314" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1314" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1314" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1314" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1314" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1314" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1314" t="n">
+        <v>3974</v>
+      </c>
+      <c r="I1314" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" t="n">
+        <v>2375</v>
+      </c>
+      <c r="B1315" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1315" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1315" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1315" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1315" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1315" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1315" t="n">
+        <v>4069</v>
+      </c>
+      <c r="I1315" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" t="n">
+        <v>2376</v>
+      </c>
+      <c r="B1316" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1316" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1316" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1316" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1316" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1316" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1316" t="n">
+        <v>1940</v>
+      </c>
+      <c r="I1316" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" t="n">
+        <v>2377</v>
+      </c>
+      <c r="B1317" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1317" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1317" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1317" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1317" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1317" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1317" t="n">
+        <v>6009</v>
+      </c>
+      <c r="I1317" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" t="n">
+        <v>2378</v>
+      </c>
+      <c r="B1318" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1318" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1318" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1318" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1318" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1318" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1318" t="n">
+        <v>3952</v>
+      </c>
+      <c r="I1318" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" t="n">
+        <v>2379</v>
+      </c>
+      <c r="B1319" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1319" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1319" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1319" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1319" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1319" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1319" t="n">
+        <v>3997</v>
+      </c>
+      <c r="I1319" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" t="n">
+        <v>2380</v>
+      </c>
+      <c r="B1320" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1320" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1320" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1320" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1320" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1320" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1320" t="n">
+        <v>1980</v>
+      </c>
+      <c r="I1320" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" t="n">
+        <v>2381</v>
+      </c>
+      <c r="B1321" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1321" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1321" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1321" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1321" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1321" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1321" t="n">
+        <v>6077</v>
+      </c>
+      <c r="I1321" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" t="n">
+        <v>2382</v>
+      </c>
+      <c r="B1322" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1322" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1322" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1322" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1322" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1322" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1322" t="n">
+        <v>3937</v>
+      </c>
+      <c r="I1322" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" t="n">
+        <v>2383</v>
+      </c>
+      <c r="B1323" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1323" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1323" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1323" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1323" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1323" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1323" t="n">
+        <v>4053</v>
+      </c>
+      <c r="I1323" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" t="n">
+        <v>2384</v>
+      </c>
+      <c r="B1324" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1324" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1324" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1324" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1324" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1324" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1324" t="n">
+        <v>1952</v>
+      </c>
+      <c r="I1324" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" t="n">
+        <v>2385</v>
+      </c>
+      <c r="B1325" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1325" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1325" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1325" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1325" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1325" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1325" t="n">
+        <v>5998</v>
+      </c>
+      <c r="I1325" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" t="n">
+        <v>2386</v>
+      </c>
+      <c r="B1326" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1326" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1326" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1326" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1326" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1326" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1326" t="n">
+        <v>4041</v>
+      </c>
+      <c r="I1326" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" t="n">
+        <v>2387</v>
+      </c>
+      <c r="B1327" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1327" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1327" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1327" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1327" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1327" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1327" t="n">
+        <v>4017</v>
+      </c>
+      <c r="I1327" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" t="n">
+        <v>2388</v>
+      </c>
+      <c r="B1328" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1328" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1328" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1328" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1328" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1328" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1328" t="n">
+        <v>1984</v>
+      </c>
+      <c r="I1328" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" t="n">
+        <v>2389</v>
+      </c>
+      <c r="B1329" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1329" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1329" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1329" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1329" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1329" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1329" t="n">
+        <v>6027</v>
+      </c>
+      <c r="I1329" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" t="n">
+        <v>2390</v>
+      </c>
+      <c r="B1330" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1330" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1330" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1330" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1330" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1330" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1330" t="n">
+        <v>3909</v>
+      </c>
+      <c r="I1330" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" t="n">
+        <v>2391</v>
+      </c>
+      <c r="B1331" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1331" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1331" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1331" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1331" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1331" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1331" t="n">
+        <v>3997</v>
+      </c>
+      <c r="I1331" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" t="n">
+        <v>2392</v>
+      </c>
+      <c r="B1332" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1332" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1332" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1332" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1332" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1332" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1332" t="n">
+        <v>1989</v>
+      </c>
+      <c r="I1332" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333" t="n">
+        <v>2393</v>
+      </c>
+      <c r="B1333" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1333" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1333" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1333" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1333" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1333" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1333" t="n">
+        <v>5977</v>
+      </c>
+      <c r="I1333" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" t="n">
+        <v>2394</v>
+      </c>
+      <c r="B1334" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1334" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1334" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1334" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1334" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1334" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1334" t="n">
+        <v>4000</v>
+      </c>
+      <c r="I1334" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" t="n">
+        <v>2395</v>
+      </c>
+      <c r="B1335" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1335" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1335" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1335" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1335" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1335" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1335" t="n">
+        <v>1985</v>
+      </c>
+      <c r="I1335" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336" t="n">
+        <v>2396</v>
+      </c>
+      <c r="B1336" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1336" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1336" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1336" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1336" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1336" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1336" t="n">
+        <v>3968</v>
+      </c>
+      <c r="I1336" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" t="n">
+        <v>2397</v>
+      </c>
+      <c r="B1337" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1337" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1337" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1337" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1337" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1337" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1337" t="n">
+        <v>1945</v>
+      </c>
+      <c r="I1337" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" t="n">
+        <v>2398</v>
+      </c>
+      <c r="B1338" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1338" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1338" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1338" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1338" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1338" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1338" t="n">
+        <v>4032</v>
+      </c>
+      <c r="I1338" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" t="n">
+        <v>2399</v>
+      </c>
+      <c r="B1339" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1339" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1339" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1339" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1339" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1339" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1339" t="n">
+        <v>3959</v>
+      </c>
+      <c r="I1339" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B1340" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1340" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1340" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1340" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1340" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1340" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1340" t="n">
+        <v>3997</v>
+      </c>
+      <c r="I1340" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" t="inlineStr">
+        <is>
+          <t>00002401</t>
+        </is>
+      </c>
+      <c r="B1341" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1341" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D1341" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1341" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1341" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1341" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1341" t="n">
+        <v>3992</v>
+      </c>
+      <c r="I1341" t="n">
         <v>5000000</v>
       </c>
     </row>

--- a/ParticleSystem_database.xlsx
+++ b/ParticleSystem_database.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1341"/>
+  <dimension ref="A1:I1525"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39312,10 +39312,8 @@
       </c>
     </row>
     <row r="1341">
-      <c r="A1341" t="inlineStr">
-        <is>
-          <t>00002401</t>
-        </is>
+      <c r="A1341" t="n">
+        <v>2401</v>
       </c>
       <c r="B1341" t="n">
         <v>0.4</v>
@@ -39339,6 +39337,5344 @@
         <v>3992</v>
       </c>
       <c r="I1341" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" t="n">
+        <v>2402</v>
+      </c>
+      <c r="B1342" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1342" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1342" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1342" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1342" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1342" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1342" t="n">
+        <v>3979</v>
+      </c>
+      <c r="I1342" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="A1343" t="n">
+        <v>2403</v>
+      </c>
+      <c r="B1343" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1343" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1343" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1343" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1343" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1343" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1343" t="n">
+        <v>4030</v>
+      </c>
+      <c r="I1343" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344" t="n">
+        <v>2404</v>
+      </c>
+      <c r="B1344" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1344" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1344" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1344" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1344" t="n">
+        <v>300</v>
+      </c>
+      <c r="G1344" t="n">
+        <v>300</v>
+      </c>
+      <c r="H1344" t="n">
+        <v>35860</v>
+      </c>
+      <c r="I1344" t="n">
+        <v>1e+18</v>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345" t="n">
+        <v>2405</v>
+      </c>
+      <c r="B1345" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1345" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1345" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1345" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1345" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1345" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1345" t="n">
+        <v>4009</v>
+      </c>
+      <c r="I1345" t="n">
+        <v>1e+18</v>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346" t="n">
+        <v>2406</v>
+      </c>
+      <c r="B1346" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1346" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1346" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1346" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1346" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1346" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1346" t="n">
+        <v>3989</v>
+      </c>
+      <c r="I1346" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" t="n">
+        <v>2407</v>
+      </c>
+      <c r="B1347" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1347" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1347" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1347" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1347" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1347" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1347" t="n">
+        <v>3998</v>
+      </c>
+      <c r="I1347" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="A1348" t="n">
+        <v>2408</v>
+      </c>
+      <c r="B1348" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1348" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1348" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1348" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1348" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1348" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1348" t="n">
+        <v>4051</v>
+      </c>
+      <c r="I1348" t="n">
+        <v>1e+18</v>
+      </c>
+    </row>
+    <row r="1349">
+      <c r="A1349" t="n">
+        <v>2409</v>
+      </c>
+      <c r="B1349" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1349" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1349" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1349" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1349" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1349" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1349" t="n">
+        <v>4037</v>
+      </c>
+      <c r="I1349" t="n">
+        <v>1e+18</v>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="A1350" t="n">
+        <v>2410</v>
+      </c>
+      <c r="B1350" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1350" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1350" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E1350" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F1350" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1350" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1350" t="n">
+        <v>3941</v>
+      </c>
+      <c r="I1350" t="n">
+        <v>1e+18</v>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" t="n">
+        <v>2411</v>
+      </c>
+      <c r="B1351" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1351" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1351" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1351" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1351" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1351" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1351" t="n">
+        <v>4028</v>
+      </c>
+      <c r="I1351" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1352">
+      <c r="A1352" t="n">
+        <v>2412</v>
+      </c>
+      <c r="B1352" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1352" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1352" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1352" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1352" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1352" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1352" t="n">
+        <v>3987</v>
+      </c>
+      <c r="I1352" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353" t="n">
+        <v>2413</v>
+      </c>
+      <c r="B1353" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1353" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1353" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1353" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1353" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1353" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1353" t="n">
+        <v>3984</v>
+      </c>
+      <c r="I1353" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="A1354" t="n">
+        <v>2414</v>
+      </c>
+      <c r="B1354" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1354" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1354" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1354" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1354" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1354" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1354" t="n">
+        <v>4064</v>
+      </c>
+      <c r="I1354" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="A1355" t="n">
+        <v>2415</v>
+      </c>
+      <c r="B1355" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1355" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1355" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1355" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1355" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1355" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1355" t="n">
+        <v>4073</v>
+      </c>
+      <c r="I1355" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356" t="n">
+        <v>2416</v>
+      </c>
+      <c r="B1356" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1356" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1356" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1356" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1356" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1356" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1356" t="n">
+        <v>4002</v>
+      </c>
+      <c r="I1356" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1357">
+      <c r="A1357" t="n">
+        <v>2417</v>
+      </c>
+      <c r="B1357" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1357" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1357" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E1357" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F1357" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1357" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1357" t="n">
+        <v>3946</v>
+      </c>
+      <c r="I1357" t="n">
+        <v>1e+18</v>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358" t="n">
+        <v>2418</v>
+      </c>
+      <c r="B1358" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1358" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1358" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1358" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1358" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1358" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1358" t="n">
+        <v>3979</v>
+      </c>
+      <c r="I1358" t="n">
+        <v>1e+18</v>
+      </c>
+    </row>
+    <row r="1359">
+      <c r="A1359" t="n">
+        <v>2419</v>
+      </c>
+      <c r="B1359" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1359" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1359" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1359" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1359" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1359" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1359" t="n">
+        <v>4011</v>
+      </c>
+      <c r="I1359" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360" t="n">
+        <v>2420</v>
+      </c>
+      <c r="B1360" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1360" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1360" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1360" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1360" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1360" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1360" t="n">
+        <v>4026</v>
+      </c>
+      <c r="I1360" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" t="n">
+        <v>2421</v>
+      </c>
+      <c r="B1361" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1361" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1361" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1361" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1361" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1361" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1361" t="n">
+        <v>3971</v>
+      </c>
+      <c r="I1361" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1362">
+      <c r="A1362" t="n">
+        <v>2422</v>
+      </c>
+      <c r="B1362" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1362" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1362" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1362" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1362" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1362" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1362" t="n">
+        <v>4026</v>
+      </c>
+      <c r="I1362" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363" t="n">
+        <v>2423</v>
+      </c>
+      <c r="B1363" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1363" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1363" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1363" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1363" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1363" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1363" t="n">
+        <v>3902</v>
+      </c>
+      <c r="I1363" t="n">
+        <v>1e+18</v>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364" t="n">
+        <v>2424</v>
+      </c>
+      <c r="B1364" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1364" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1364" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1364" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1364" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1364" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1364" t="n">
+        <v>3946</v>
+      </c>
+      <c r="I1364" t="n">
+        <v>1e+18</v>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365" t="n">
+        <v>2425</v>
+      </c>
+      <c r="B1365" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1365" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1365" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1365" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1365" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1365" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1365" t="n">
+        <v>4067</v>
+      </c>
+      <c r="I1365" t="n">
+        <v>1e+18</v>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366" t="n">
+        <v>2426</v>
+      </c>
+      <c r="B1366" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1366" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1366" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1366" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1366" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1366" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1366" t="n">
+        <v>3939</v>
+      </c>
+      <c r="I1366" t="n">
+        <v>1e+18</v>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367" t="n">
+        <v>2427</v>
+      </c>
+      <c r="B1367" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1367" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1367" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1367" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1367" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1367" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1367" t="n">
+        <v>3937</v>
+      </c>
+      <c r="I1367" t="n">
+        <v>1e+18</v>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" t="n">
+        <v>2428</v>
+      </c>
+      <c r="B1368" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1368" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1368" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1368" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1368" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1368" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1368" t="n">
+        <v>3920</v>
+      </c>
+      <c r="I1368" t="n">
+        <v>1e+18</v>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" t="n">
+        <v>2429</v>
+      </c>
+      <c r="B1369" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1369" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1369" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1369" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1369" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1369" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1369" t="n">
+        <v>4019</v>
+      </c>
+      <c r="I1369" t="n">
+        <v>1e+18</v>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" t="n">
+        <v>2430</v>
+      </c>
+      <c r="B1370" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1370" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1370" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1370" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1370" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1370" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1370" t="n">
+        <v>3983</v>
+      </c>
+      <c r="I1370" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" t="n">
+        <v>2431</v>
+      </c>
+      <c r="B1371" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1371" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1371" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1371" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1371" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1371" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1371" t="n">
+        <v>4017</v>
+      </c>
+      <c r="I1371" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" t="n">
+        <v>2432</v>
+      </c>
+      <c r="B1372" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1372" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1372" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1372" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1372" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1372" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1372" t="n">
+        <v>3959</v>
+      </c>
+      <c r="I1372" t="n">
+        <v>1e+18</v>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" t="n">
+        <v>2433</v>
+      </c>
+      <c r="B1373" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1373" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1373" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1373" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1373" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1373" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1373" t="n">
+        <v>3994</v>
+      </c>
+      <c r="I1373" t="n">
+        <v>1e+18</v>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" t="n">
+        <v>2434</v>
+      </c>
+      <c r="B1374" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1374" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1374" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1374" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1374" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1374" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1374" t="n">
+        <v>4010</v>
+      </c>
+      <c r="I1374" t="n">
+        <v>1e+18</v>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" t="n">
+        <v>2435</v>
+      </c>
+      <c r="B1375" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1375" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1375" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1375" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1375" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1375" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1375" t="n">
+        <v>4002</v>
+      </c>
+      <c r="I1375" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" t="n">
+        <v>2436</v>
+      </c>
+      <c r="B1376" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1376" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1376" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1376" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1376" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1376" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1376" t="n">
+        <v>3971</v>
+      </c>
+      <c r="I1376" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" t="n">
+        <v>2437</v>
+      </c>
+      <c r="B1377" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1377" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1377" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1377" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1377" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1377" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1377" t="n">
+        <v>3986</v>
+      </c>
+      <c r="I1377" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" t="n">
+        <v>2438</v>
+      </c>
+      <c r="B1378" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1378" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1378" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1378" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1378" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1378" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1378" t="n">
+        <v>3954</v>
+      </c>
+      <c r="I1378" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" t="n">
+        <v>2439</v>
+      </c>
+      <c r="B1379" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1379" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1379" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1379" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1379" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1379" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1379" t="n">
+        <v>3983</v>
+      </c>
+      <c r="I1379" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" t="n">
+        <v>2440</v>
+      </c>
+      <c r="B1380" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1380" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1380" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1380" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1380" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1380" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1380" t="n">
+        <v>3965</v>
+      </c>
+      <c r="I1380" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" t="n">
+        <v>2441</v>
+      </c>
+      <c r="B1381" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1381" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1381" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1381" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1381" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1381" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1381" t="n">
+        <v>4024</v>
+      </c>
+      <c r="I1381" t="n">
+        <v>1e+18</v>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" t="n">
+        <v>2442</v>
+      </c>
+      <c r="B1382" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1382" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1382" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1382" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1382" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1382" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1382" t="n">
+        <v>3935</v>
+      </c>
+      <c r="I1382" t="n">
+        <v>1e+18</v>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" t="n">
+        <v>2443</v>
+      </c>
+      <c r="B1383" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1383" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1383" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1383" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1383" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1383" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1383" t="n">
+        <v>3998</v>
+      </c>
+      <c r="I1383" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" t="n">
+        <v>2444</v>
+      </c>
+      <c r="B1384" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1384" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1384" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1384" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1384" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1384" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1384" t="n">
+        <v>4054</v>
+      </c>
+      <c r="I1384" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" t="n">
+        <v>2445</v>
+      </c>
+      <c r="B1385" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1385" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1385" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1385" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1385" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1385" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1385" t="n">
+        <v>3966</v>
+      </c>
+      <c r="I1385" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" t="n">
+        <v>2446</v>
+      </c>
+      <c r="B1386" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1386" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1386" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1386" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1386" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1386" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1386" t="n">
+        <v>4031</v>
+      </c>
+      <c r="I1386" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" t="n">
+        <v>2447</v>
+      </c>
+      <c r="B1387" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1387" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1387" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1387" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1387" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1387" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1387" t="n">
+        <v>3941</v>
+      </c>
+      <c r="I1387" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" t="n">
+        <v>2448</v>
+      </c>
+      <c r="B1388" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1388" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1388" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1388" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1388" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1388" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1388" t="n">
+        <v>3946</v>
+      </c>
+      <c r="I1388" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" t="n">
+        <v>2449</v>
+      </c>
+      <c r="B1389" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1389" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1389" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1389" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1389" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1389" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1389" t="n">
+        <v>4058</v>
+      </c>
+      <c r="I1389" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" t="n">
+        <v>2450</v>
+      </c>
+      <c r="B1390" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1390" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1390" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1390" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1390" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1390" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1390" t="n">
+        <v>4061</v>
+      </c>
+      <c r="I1390" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" t="n">
+        <v>2451</v>
+      </c>
+      <c r="B1391" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1391" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1391" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1391" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1391" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1391" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1391" t="n">
+        <v>3955</v>
+      </c>
+      <c r="I1391" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" t="n">
+        <v>2452</v>
+      </c>
+      <c r="B1392" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1392" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1392" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1392" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1392" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1392" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1392" t="n">
+        <v>4012</v>
+      </c>
+      <c r="I1392" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" t="n">
+        <v>2453</v>
+      </c>
+      <c r="B1393" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1393" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1393" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1393" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1393" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1393" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1393" t="n">
+        <v>4031</v>
+      </c>
+      <c r="I1393" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" t="n">
+        <v>2454</v>
+      </c>
+      <c r="B1394" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1394" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1394" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1394" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1394" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1394" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1394" t="n">
+        <v>4027</v>
+      </c>
+      <c r="I1394" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" t="n">
+        <v>2455</v>
+      </c>
+      <c r="B1395" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1395" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1395" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1395" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1395" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1395" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1395" t="n">
+        <v>3985</v>
+      </c>
+      <c r="I1395" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" t="n">
+        <v>2456</v>
+      </c>
+      <c r="B1396" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1396" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1396" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1396" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1396" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1396" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1396" t="n">
+        <v>4036</v>
+      </c>
+      <c r="I1396" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" t="n">
+        <v>2457</v>
+      </c>
+      <c r="B1397" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1397" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1397" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1397" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1397" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1397" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1397" t="n">
+        <v>4059</v>
+      </c>
+      <c r="I1397" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" t="n">
+        <v>2458</v>
+      </c>
+      <c r="B1398" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1398" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1398" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1398" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1398" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1398" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1398" t="n">
+        <v>3959</v>
+      </c>
+      <c r="I1398" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" t="n">
+        <v>2459</v>
+      </c>
+      <c r="B1399" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1399" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1399" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1399" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1399" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1399" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1399" t="n">
+        <v>3938</v>
+      </c>
+      <c r="I1399" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" t="n">
+        <v>2460</v>
+      </c>
+      <c r="B1400" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1400" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1400" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1400" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1400" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1400" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1400" t="n">
+        <v>3986</v>
+      </c>
+      <c r="I1400" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" t="n">
+        <v>2461</v>
+      </c>
+      <c r="B1401" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1401" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1401" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1401" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1401" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1401" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1401" t="n">
+        <v>3978</v>
+      </c>
+      <c r="I1401" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" t="n">
+        <v>2462</v>
+      </c>
+      <c r="B1402" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1402" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1402" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1402" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1402" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1402" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1402" t="n">
+        <v>3995</v>
+      </c>
+      <c r="I1402" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403" t="n">
+        <v>2463</v>
+      </c>
+      <c r="B1403" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1403" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1403" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1403" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1403" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1403" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1403" t="n">
+        <v>4016</v>
+      </c>
+      <c r="I1403" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" t="n">
+        <v>2464</v>
+      </c>
+      <c r="B1404" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1404" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1404" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1404" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1404" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1404" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1404" t="n">
+        <v>4026</v>
+      </c>
+      <c r="I1404" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405" t="n">
+        <v>2465</v>
+      </c>
+      <c r="B1405" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1405" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1405" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1405" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1405" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1405" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1405" t="n">
+        <v>4008</v>
+      </c>
+      <c r="I1405" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406" t="n">
+        <v>2466</v>
+      </c>
+      <c r="B1406" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1406" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1406" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1406" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1406" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1406" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1406" t="n">
+        <v>4002</v>
+      </c>
+      <c r="I1406" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407" t="n">
+        <v>2467</v>
+      </c>
+      <c r="B1407" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1407" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1407" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1407" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1407" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1407" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1407" t="n">
+        <v>3972</v>
+      </c>
+      <c r="I1407" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" t="n">
+        <v>2468</v>
+      </c>
+      <c r="B1408" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1408" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1408" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1408" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1408" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1408" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1408" t="n">
+        <v>4027</v>
+      </c>
+      <c r="I1408" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" t="n">
+        <v>2469</v>
+      </c>
+      <c r="B1409" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1409" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1409" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1409" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1409" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1409" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1409" t="n">
+        <v>3971</v>
+      </c>
+      <c r="I1409" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410" t="n">
+        <v>2470</v>
+      </c>
+      <c r="B1410" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1410" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1410" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1410" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1410" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1410" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1410" t="n">
+        <v>3932</v>
+      </c>
+      <c r="I1410" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1411">
+      <c r="A1411" t="n">
+        <v>2471</v>
+      </c>
+      <c r="B1411" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1411" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1411" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1411" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1411" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1411" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1411" t="n">
+        <v>3926</v>
+      </c>
+      <c r="I1411" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412" t="n">
+        <v>2472</v>
+      </c>
+      <c r="B1412" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1412" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1412" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1412" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1412" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1412" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1412" t="n">
+        <v>3879</v>
+      </c>
+      <c r="I1412" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1413">
+      <c r="A1413" t="n">
+        <v>2473</v>
+      </c>
+      <c r="B1413" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1413" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1413" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1413" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1413" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1413" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1413" t="n">
+        <v>4054</v>
+      </c>
+      <c r="I1413" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414" t="n">
+        <v>2474</v>
+      </c>
+      <c r="B1414" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1414" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1414" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1414" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1414" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1414" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1414" t="n">
+        <v>3975</v>
+      </c>
+      <c r="I1414" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1415">
+      <c r="A1415" t="n">
+        <v>2475</v>
+      </c>
+      <c r="B1415" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1415" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1415" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1415" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1415" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1415" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1415" t="n">
+        <v>4066</v>
+      </c>
+      <c r="I1415" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" t="n">
+        <v>2476</v>
+      </c>
+      <c r="B1416" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1416" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1416" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1416" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1416" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1416" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1416" t="n">
+        <v>4001</v>
+      </c>
+      <c r="I1416" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417" t="n">
+        <v>2477</v>
+      </c>
+      <c r="B1417" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1417" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1417" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1417" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1417" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1417" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1417" t="n">
+        <v>4037</v>
+      </c>
+      <c r="I1417" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1418">
+      <c r="A1418" t="n">
+        <v>2478</v>
+      </c>
+      <c r="B1418" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1418" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1418" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1418" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1418" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1418" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1418" t="n">
+        <v>4004</v>
+      </c>
+      <c r="I1418" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1419">
+      <c r="A1419" t="n">
+        <v>2479</v>
+      </c>
+      <c r="B1419" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1419" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1419" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1419" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1419" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1419" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1419" t="n">
+        <v>4010</v>
+      </c>
+      <c r="I1419" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1420">
+      <c r="A1420" t="n">
+        <v>2480</v>
+      </c>
+      <c r="B1420" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1420" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1420" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1420" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1420" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1420" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1420" t="n">
+        <v>3962</v>
+      </c>
+      <c r="I1420" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1421">
+      <c r="A1421" t="n">
+        <v>2481</v>
+      </c>
+      <c r="B1421" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1421" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1421" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1421" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1421" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1421" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1421" t="n">
+        <v>4062</v>
+      </c>
+      <c r="I1421" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1422">
+      <c r="A1422" t="n">
+        <v>2482</v>
+      </c>
+      <c r="B1422" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1422" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1422" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1422" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1422" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1422" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1422" t="n">
+        <v>3989</v>
+      </c>
+      <c r="I1422" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1423">
+      <c r="A1423" t="n">
+        <v>2483</v>
+      </c>
+      <c r="B1423" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1423" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1423" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1423" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1423" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1423" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1423" t="n">
+        <v>3917</v>
+      </c>
+      <c r="I1423" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1424">
+      <c r="A1424" t="n">
+        <v>2484</v>
+      </c>
+      <c r="B1424" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1424" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1424" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1424" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1424" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1424" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1424" t="n">
+        <v>4018</v>
+      </c>
+      <c r="I1424" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1425">
+      <c r="A1425" t="n">
+        <v>2485</v>
+      </c>
+      <c r="B1425" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1425" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1425" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1425" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1425" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1425" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1425" t="n">
+        <v>3969</v>
+      </c>
+      <c r="I1425" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1426">
+      <c r="A1426" t="n">
+        <v>2486</v>
+      </c>
+      <c r="B1426" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1426" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1426" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1426" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1426" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1426" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1426" t="n">
+        <v>4012</v>
+      </c>
+      <c r="I1426" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1427">
+      <c r="A1427" t="n">
+        <v>2487</v>
+      </c>
+      <c r="B1427" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1427" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1427" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1427" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1427" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1427" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1427" t="n">
+        <v>3970</v>
+      </c>
+      <c r="I1427" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1428">
+      <c r="A1428" t="n">
+        <v>2488</v>
+      </c>
+      <c r="B1428" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1428" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1428" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1428" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1428" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1428" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1428" t="n">
+        <v>4025</v>
+      </c>
+      <c r="I1428" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1429">
+      <c r="A1429" t="n">
+        <v>2489</v>
+      </c>
+      <c r="B1429" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1429" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1429" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1429" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1429" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1429" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1429" t="n">
+        <v>4030</v>
+      </c>
+      <c r="I1429" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1430">
+      <c r="A1430" t="n">
+        <v>2490</v>
+      </c>
+      <c r="B1430" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1430" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1430" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1430" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1430" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1430" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1430" t="n">
+        <v>4053</v>
+      </c>
+      <c r="I1430" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1431">
+      <c r="A1431" t="n">
+        <v>2491</v>
+      </c>
+      <c r="B1431" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1431" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1431" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1431" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1431" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1431" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1431" t="n">
+        <v>4006</v>
+      </c>
+      <c r="I1431" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1432">
+      <c r="A1432" t="n">
+        <v>2492</v>
+      </c>
+      <c r="B1432" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1432" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1432" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1432" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1432" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1432" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1432" t="n">
+        <v>3900</v>
+      </c>
+      <c r="I1432" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1433">
+      <c r="A1433" t="n">
+        <v>2493</v>
+      </c>
+      <c r="B1433" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1433" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1433" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1433" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1433" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1433" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1433" t="n">
+        <v>3993</v>
+      </c>
+      <c r="I1433" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1434">
+      <c r="A1434" t="n">
+        <v>2494</v>
+      </c>
+      <c r="B1434" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1434" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1434" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1434" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1434" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1434" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1434" t="n">
+        <v>3961</v>
+      </c>
+      <c r="I1434" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1435">
+      <c r="A1435" t="n">
+        <v>2495</v>
+      </c>
+      <c r="B1435" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1435" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1435" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1435" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1435" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1435" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1435" t="n">
+        <v>3974</v>
+      </c>
+      <c r="I1435" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1436">
+      <c r="A1436" t="n">
+        <v>2496</v>
+      </c>
+      <c r="B1436" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1436" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1436" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1436" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1436" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1436" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1436" t="n">
+        <v>4030</v>
+      </c>
+      <c r="I1436" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1437">
+      <c r="A1437" t="n">
+        <v>2497</v>
+      </c>
+      <c r="B1437" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1437" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1437" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1437" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1437" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1437" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1437" t="n">
+        <v>4002</v>
+      </c>
+      <c r="I1437" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1438">
+      <c r="A1438" t="n">
+        <v>2498</v>
+      </c>
+      <c r="B1438" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1438" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1438" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1438" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1438" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1438" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1438" t="n">
+        <v>3933</v>
+      </c>
+      <c r="I1438" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1439">
+      <c r="A1439" t="n">
+        <v>2499</v>
+      </c>
+      <c r="B1439" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1439" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1439" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1439" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1439" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1439" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1439" t="n">
+        <v>4045</v>
+      </c>
+      <c r="I1439" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1440">
+      <c r="A1440" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B1440" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1440" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1440" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1440" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1440" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1440" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1440" t="n">
+        <v>3969</v>
+      </c>
+      <c r="I1440" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1441">
+      <c r="A1441" t="n">
+        <v>2501</v>
+      </c>
+      <c r="B1441" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1441" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1441" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1441" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1441" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1441" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1441" t="n">
+        <v>4011</v>
+      </c>
+      <c r="I1441" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1442">
+      <c r="A1442" t="n">
+        <v>2502</v>
+      </c>
+      <c r="B1442" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1442" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1442" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1442" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1442" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1442" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1442" t="n">
+        <v>3880</v>
+      </c>
+      <c r="I1442" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1443">
+      <c r="A1443" t="n">
+        <v>2503</v>
+      </c>
+      <c r="B1443" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1443" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1443" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1443" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1443" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1443" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1443" t="n">
+        <v>3971</v>
+      </c>
+      <c r="I1443" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1444">
+      <c r="A1444" t="n">
+        <v>2504</v>
+      </c>
+      <c r="B1444" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1444" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1444" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1444" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1444" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1444" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1444" t="n">
+        <v>4094</v>
+      </c>
+      <c r="I1444" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1445">
+      <c r="A1445" t="n">
+        <v>2505</v>
+      </c>
+      <c r="B1445" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1445" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1445" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1445" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1445" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1445" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1445" t="n">
+        <v>4038</v>
+      </c>
+      <c r="I1445" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1446">
+      <c r="A1446" t="n">
+        <v>2506</v>
+      </c>
+      <c r="B1446" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1446" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1446" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1446" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1446" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1446" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1446" t="n">
+        <v>4035</v>
+      </c>
+      <c r="I1446" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1447">
+      <c r="A1447" t="n">
+        <v>2507</v>
+      </c>
+      <c r="B1447" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1447" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1447" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1447" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1447" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1447" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1447" t="n">
+        <v>3932</v>
+      </c>
+      <c r="I1447" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1448">
+      <c r="A1448" t="n">
+        <v>2508</v>
+      </c>
+      <c r="B1448" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1448" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1448" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1448" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1448" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1448" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1448" t="n">
+        <v>3888</v>
+      </c>
+      <c r="I1448" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1449">
+      <c r="A1449" t="n">
+        <v>2509</v>
+      </c>
+      <c r="B1449" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1449" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1449" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1449" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1449" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1449" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1449" t="n">
+        <v>3951</v>
+      </c>
+      <c r="I1449" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1450">
+      <c r="A1450" t="n">
+        <v>2510</v>
+      </c>
+      <c r="B1450" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1450" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1450" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1450" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1450" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1450" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1450" t="n">
+        <v>3966</v>
+      </c>
+      <c r="I1450" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1451">
+      <c r="A1451" t="n">
+        <v>2511</v>
+      </c>
+      <c r="B1451" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1451" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1451" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1451" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1451" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1451" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1451" t="n">
+        <v>3982</v>
+      </c>
+      <c r="I1451" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1452">
+      <c r="A1452" t="n">
+        <v>2512</v>
+      </c>
+      <c r="B1452" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1452" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1452" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1452" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1452" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1452" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1452" t="n">
+        <v>4044</v>
+      </c>
+      <c r="I1452" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1453">
+      <c r="A1453" t="n">
+        <v>2513</v>
+      </c>
+      <c r="B1453" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1453" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1453" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1453" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1453" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1453" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1453" t="n">
+        <v>4025</v>
+      </c>
+      <c r="I1453" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1454">
+      <c r="A1454" t="n">
+        <v>2514</v>
+      </c>
+      <c r="B1454" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1454" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1454" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1454" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1454" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1454" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1454" t="n">
+        <v>4000</v>
+      </c>
+      <c r="I1454" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1455">
+      <c r="A1455" t="n">
+        <v>2515</v>
+      </c>
+      <c r="B1455" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1455" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1455" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1455" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1455" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1455" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1455" t="n">
+        <v>4038</v>
+      </c>
+      <c r="I1455" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1456">
+      <c r="A1456" t="n">
+        <v>2516</v>
+      </c>
+      <c r="B1456" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1456" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1456" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1456" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1456" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1456" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1456" t="n">
+        <v>4000</v>
+      </c>
+      <c r="I1456" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1457">
+      <c r="A1457" t="n">
+        <v>2517</v>
+      </c>
+      <c r="B1457" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1457" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1457" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1457" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1457" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1457" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1457" t="n">
+        <v>4024</v>
+      </c>
+      <c r="I1457" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1458">
+      <c r="A1458" t="n">
+        <v>2518</v>
+      </c>
+      <c r="B1458" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1458" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1458" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1458" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1458" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1458" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1458" t="n">
+        <v>4084</v>
+      </c>
+      <c r="I1458" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1459">
+      <c r="A1459" t="n">
+        <v>2519</v>
+      </c>
+      <c r="B1459" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1459" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1459" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1459" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1459" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1459" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1459" t="n">
+        <v>4071</v>
+      </c>
+      <c r="I1459" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1460">
+      <c r="A1460" t="n">
+        <v>2520</v>
+      </c>
+      <c r="B1460" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1460" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1460" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1460" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1460" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1460" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1460" t="n">
+        <v>4008</v>
+      </c>
+      <c r="I1460" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1461">
+      <c r="A1461" t="n">
+        <v>2521</v>
+      </c>
+      <c r="B1461" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1461" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1461" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1461" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1461" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1461" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1461" t="n">
+        <v>3962</v>
+      </c>
+      <c r="I1461" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1462">
+      <c r="A1462" t="n">
+        <v>2522</v>
+      </c>
+      <c r="B1462" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1462" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1462" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1462" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1462" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1462" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1462" t="n">
+        <v>4012</v>
+      </c>
+      <c r="I1462" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1463">
+      <c r="A1463" t="n">
+        <v>2523</v>
+      </c>
+      <c r="B1463" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1463" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1463" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1463" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1463" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1463" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1463" t="n">
+        <v>4100</v>
+      </c>
+      <c r="I1463" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1464">
+      <c r="A1464" t="n">
+        <v>2524</v>
+      </c>
+      <c r="B1464" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1464" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1464" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1464" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1464" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1464" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1464" t="n">
+        <v>3975</v>
+      </c>
+      <c r="I1464" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1465">
+      <c r="A1465" t="n">
+        <v>2525</v>
+      </c>
+      <c r="B1465" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1465" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1465" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1465" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1465" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1465" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1465" t="n">
+        <v>4051</v>
+      </c>
+      <c r="I1465" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1466">
+      <c r="A1466" t="n">
+        <v>2526</v>
+      </c>
+      <c r="B1466" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1466" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1466" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1466" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1466" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1466" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1466" t="n">
+        <v>4041</v>
+      </c>
+      <c r="I1466" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1467">
+      <c r="A1467" t="n">
+        <v>2527</v>
+      </c>
+      <c r="B1467" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1467" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1467" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1467" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1467" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1467" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1467" t="n">
+        <v>4061</v>
+      </c>
+      <c r="I1467" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1468">
+      <c r="A1468" t="n">
+        <v>2528</v>
+      </c>
+      <c r="B1468" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1468" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1468" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1468" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1468" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1468" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1468" t="n">
+        <v>3998</v>
+      </c>
+      <c r="I1468" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1469">
+      <c r="A1469" t="n">
+        <v>2529</v>
+      </c>
+      <c r="B1469" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1469" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1469" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1469" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1469" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1469" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1469" t="n">
+        <v>4039</v>
+      </c>
+      <c r="I1469" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1470">
+      <c r="A1470" t="n">
+        <v>2530</v>
+      </c>
+      <c r="B1470" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1470" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1470" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1470" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1470" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1470" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1470" t="n">
+        <v>3977</v>
+      </c>
+      <c r="I1470" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1471">
+      <c r="A1471" t="n">
+        <v>2531</v>
+      </c>
+      <c r="B1471" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1471" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1471" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1471" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1471" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1471" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1471" t="n">
+        <v>4001</v>
+      </c>
+      <c r="I1471" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1472">
+      <c r="A1472" t="n">
+        <v>2532</v>
+      </c>
+      <c r="B1472" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1472" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1472" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1472" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1472" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1472" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1472" t="n">
+        <v>3967</v>
+      </c>
+      <c r="I1472" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1473">
+      <c r="A1473" t="n">
+        <v>2533</v>
+      </c>
+      <c r="B1473" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1473" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1473" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1473" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1473" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1473" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1473" t="n">
+        <v>3955</v>
+      </c>
+      <c r="I1473" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1474">
+      <c r="A1474" t="n">
+        <v>2534</v>
+      </c>
+      <c r="B1474" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1474" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1474" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1474" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1474" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1474" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1474" t="n">
+        <v>4004</v>
+      </c>
+      <c r="I1474" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1475">
+      <c r="A1475" t="n">
+        <v>2535</v>
+      </c>
+      <c r="B1475" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1475" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1475" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1475" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1475" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1475" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1475" t="n">
+        <v>4011</v>
+      </c>
+      <c r="I1475" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1476">
+      <c r="A1476" t="n">
+        <v>2536</v>
+      </c>
+      <c r="B1476" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1476" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1476" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1476" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1476" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1476" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1476" t="n">
+        <v>4185</v>
+      </c>
+      <c r="I1476" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1477">
+      <c r="A1477" t="n">
+        <v>2537</v>
+      </c>
+      <c r="B1477" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1477" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1477" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1477" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1477" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1477" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1477" t="n">
+        <v>4078</v>
+      </c>
+      <c r="I1477" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1478">
+      <c r="A1478" t="n">
+        <v>2538</v>
+      </c>
+      <c r="B1478" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1478" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1478" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1478" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1478" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1478" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1478" t="n">
+        <v>3948</v>
+      </c>
+      <c r="I1478" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1479">
+      <c r="A1479" t="n">
+        <v>2539</v>
+      </c>
+      <c r="B1479" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1479" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1479" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1479" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1479" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1479" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1479" t="n">
+        <v>4014</v>
+      </c>
+      <c r="I1479" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1480">
+      <c r="A1480" t="n">
+        <v>2540</v>
+      </c>
+      <c r="B1480" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1480" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1480" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1480" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1480" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1480" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1480" t="n">
+        <v>3970</v>
+      </c>
+      <c r="I1480" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1481">
+      <c r="A1481" t="n">
+        <v>2541</v>
+      </c>
+      <c r="B1481" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1481" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1481" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1481" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1481" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1481" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1481" t="n">
+        <v>3937</v>
+      </c>
+      <c r="I1481" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1482">
+      <c r="A1482" t="n">
+        <v>2542</v>
+      </c>
+      <c r="B1482" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1482" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1482" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1482" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1482" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1482" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1482" t="n">
+        <v>4076</v>
+      </c>
+      <c r="I1482" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1483">
+      <c r="A1483" t="n">
+        <v>2543</v>
+      </c>
+      <c r="B1483" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1483" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1483" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1483" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1483" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1483" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1483" t="n">
+        <v>3999</v>
+      </c>
+      <c r="I1483" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1484">
+      <c r="A1484" t="n">
+        <v>2544</v>
+      </c>
+      <c r="B1484" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1484" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1484" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1484" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1484" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1484" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1484" t="n">
+        <v>4010</v>
+      </c>
+      <c r="I1484" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1485">
+      <c r="A1485" t="n">
+        <v>2545</v>
+      </c>
+      <c r="B1485" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1485" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1485" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1485" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1485" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1485" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1485" t="n">
+        <v>4022</v>
+      </c>
+      <c r="I1485" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1486">
+      <c r="A1486" t="n">
+        <v>2546</v>
+      </c>
+      <c r="B1486" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1486" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1486" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1486" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1486" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1486" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1486" t="n">
+        <v>4060</v>
+      </c>
+      <c r="I1486" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1487">
+      <c r="A1487" t="n">
+        <v>2547</v>
+      </c>
+      <c r="B1487" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1487" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1487" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1487" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1487" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1487" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1487" t="n">
+        <v>3993</v>
+      </c>
+      <c r="I1487" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1488">
+      <c r="A1488" t="n">
+        <v>2548</v>
+      </c>
+      <c r="B1488" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1488" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1488" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1488" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1488" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1488" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1488" t="n">
+        <v>4062</v>
+      </c>
+      <c r="I1488" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" t="n">
+        <v>2549</v>
+      </c>
+      <c r="B1489" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1489" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1489" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1489" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1489" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1489" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1489" t="n">
+        <v>3959</v>
+      </c>
+      <c r="I1489" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1490">
+      <c r="A1490" t="n">
+        <v>2550</v>
+      </c>
+      <c r="B1490" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1490" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1490" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1490" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1490" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1490" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1490" t="n">
+        <v>3951</v>
+      </c>
+      <c r="I1490" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491" t="n">
+        <v>2551</v>
+      </c>
+      <c r="B1491" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1491" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1491" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1491" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1491" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1491" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1491" t="n">
+        <v>4037</v>
+      </c>
+      <c r="I1491" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1492">
+      <c r="A1492" t="n">
+        <v>2552</v>
+      </c>
+      <c r="B1492" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1492" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1492" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1492" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1492" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1492" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1492" t="n">
+        <v>3929</v>
+      </c>
+      <c r="I1492" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1493">
+      <c r="A1493" t="n">
+        <v>2553</v>
+      </c>
+      <c r="B1493" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1493" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1493" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1493" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1493" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1493" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1493" t="n">
+        <v>4009</v>
+      </c>
+      <c r="I1493" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494" t="n">
+        <v>2554</v>
+      </c>
+      <c r="B1494" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1494" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1494" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1494" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1494" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1494" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1494" t="n">
+        <v>3986</v>
+      </c>
+      <c r="I1494" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1495">
+      <c r="A1495" t="n">
+        <v>2555</v>
+      </c>
+      <c r="B1495" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1495" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1495" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1495" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1495" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1495" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1495" t="n">
+        <v>4022</v>
+      </c>
+      <c r="I1495" t="n">
+        <v>1e+18</v>
+      </c>
+    </row>
+    <row r="1496">
+      <c r="A1496" t="n">
+        <v>2556</v>
+      </c>
+      <c r="B1496" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1496" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1496" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1496" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1496" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1496" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1496" t="n">
+        <v>3934</v>
+      </c>
+      <c r="I1496" t="n">
+        <v>1e+18</v>
+      </c>
+    </row>
+    <row r="1497">
+      <c r="A1497" t="n">
+        <v>2557</v>
+      </c>
+      <c r="B1497" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1497" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1497" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1497" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1497" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1497" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1497" t="n">
+        <v>3928</v>
+      </c>
+      <c r="I1497" t="n">
+        <v>1e+18</v>
+      </c>
+    </row>
+    <row r="1498">
+      <c r="A1498" t="n">
+        <v>2558</v>
+      </c>
+      <c r="B1498" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1498" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1498" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1498" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1498" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1498" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1498" t="n">
+        <v>3984</v>
+      </c>
+      <c r="I1498" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1499">
+      <c r="A1499" t="n">
+        <v>2559</v>
+      </c>
+      <c r="B1499" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1499" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1499" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1499" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1499" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1499" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1499" t="n">
+        <v>4027</v>
+      </c>
+      <c r="I1499" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1500">
+      <c r="A1500" t="n">
+        <v>2560</v>
+      </c>
+      <c r="B1500" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1500" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1500" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1500" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1500" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1500" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1500" t="n">
+        <v>3930</v>
+      </c>
+      <c r="I1500" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1501">
+      <c r="A1501" t="n">
+        <v>2561</v>
+      </c>
+      <c r="B1501" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1501" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1501" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1501" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1501" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1501" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1501" t="n">
+        <v>4033</v>
+      </c>
+      <c r="I1501" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1502">
+      <c r="A1502" t="n">
+        <v>2562</v>
+      </c>
+      <c r="B1502" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1502" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1502" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1502" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1502" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1502" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1502" t="n">
+        <v>3991</v>
+      </c>
+      <c r="I1502" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1503">
+      <c r="A1503" t="n">
+        <v>2563</v>
+      </c>
+      <c r="B1503" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1503" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1503" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1503" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1503" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1503" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1503" t="n">
+        <v>3971</v>
+      </c>
+      <c r="I1503" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1504">
+      <c r="A1504" t="n">
+        <v>2564</v>
+      </c>
+      <c r="B1504" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1504" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1504" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1504" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1504" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1504" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1504" t="n">
+        <v>4022</v>
+      </c>
+      <c r="I1504" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1505">
+      <c r="A1505" t="n">
+        <v>2565</v>
+      </c>
+      <c r="B1505" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1505" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1505" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1505" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1505" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1505" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1505" t="n">
+        <v>4131</v>
+      </c>
+      <c r="I1505" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1506">
+      <c r="A1506" t="n">
+        <v>2566</v>
+      </c>
+      <c r="B1506" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1506" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1506" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1506" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1506" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1506" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1506" t="n">
+        <v>4038</v>
+      </c>
+      <c r="I1506" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" t="n">
+        <v>2567</v>
+      </c>
+      <c r="B1507" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1507" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1507" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1507" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1507" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1507" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1507" t="n">
+        <v>3966</v>
+      </c>
+      <c r="I1507" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508" t="n">
+        <v>2568</v>
+      </c>
+      <c r="B1508" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1508" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1508" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1508" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1508" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1508" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1508" t="n">
+        <v>4006</v>
+      </c>
+      <c r="I1508" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1509">
+      <c r="A1509" t="n">
+        <v>2569</v>
+      </c>
+      <c r="B1509" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1509" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1509" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1509" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1509" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1509" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1509" t="n">
+        <v>4028</v>
+      </c>
+      <c r="I1509" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1510">
+      <c r="A1510" t="n">
+        <v>2570</v>
+      </c>
+      <c r="B1510" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1510" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1510" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1510" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1510" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1510" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1510" t="n">
+        <v>4068</v>
+      </c>
+      <c r="I1510" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1511">
+      <c r="A1511" t="n">
+        <v>2571</v>
+      </c>
+      <c r="B1511" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1511" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1511" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1511" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1511" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1511" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1511" t="n">
+        <v>3960</v>
+      </c>
+      <c r="I1511" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1512">
+      <c r="A1512" t="n">
+        <v>2572</v>
+      </c>
+      <c r="B1512" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1512" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1512" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1512" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1512" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1512" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1512" t="n">
+        <v>3947</v>
+      </c>
+      <c r="I1512" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1513">
+      <c r="A1513" t="n">
+        <v>2573</v>
+      </c>
+      <c r="B1513" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1513" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1513" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1513" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1513" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1513" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1513" t="n">
+        <v>3994</v>
+      </c>
+      <c r="I1513" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1514">
+      <c r="A1514" t="n">
+        <v>2574</v>
+      </c>
+      <c r="B1514" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1514" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1514" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1514" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1514" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1514" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1514" t="n">
+        <v>3962</v>
+      </c>
+      <c r="I1514" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1515">
+      <c r="A1515" t="n">
+        <v>2575</v>
+      </c>
+      <c r="B1515" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1515" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1515" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1515" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1515" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1515" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1515" t="n">
+        <v>4004</v>
+      </c>
+      <c r="I1515" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1516">
+      <c r="A1516" t="n">
+        <v>2576</v>
+      </c>
+      <c r="B1516" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1516" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1516" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1516" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1516" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1516" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1516" t="n">
+        <v>4005</v>
+      </c>
+      <c r="I1516" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1517">
+      <c r="A1517" t="n">
+        <v>2577</v>
+      </c>
+      <c r="B1517" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1517" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1517" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1517" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1517" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1517" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1517" t="n">
+        <v>4116</v>
+      </c>
+      <c r="I1517" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1518">
+      <c r="A1518" t="n">
+        <v>2578</v>
+      </c>
+      <c r="B1518" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1518" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1518" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1518" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1518" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1518" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1518" t="n">
+        <v>3982</v>
+      </c>
+      <c r="I1518" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1519">
+      <c r="A1519" t="n">
+        <v>2579</v>
+      </c>
+      <c r="B1519" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1519" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1519" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1519" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1519" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1519" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1519" t="n">
+        <v>4054</v>
+      </c>
+      <c r="I1519" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1520">
+      <c r="A1520" t="n">
+        <v>2580</v>
+      </c>
+      <c r="B1520" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1520" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1520" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1520" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1520" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1520" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1520" t="n">
+        <v>3979</v>
+      </c>
+      <c r="I1520" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1521">
+      <c r="A1521" t="n">
+        <v>2581</v>
+      </c>
+      <c r="B1521" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1521" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1521" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1521" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1521" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1521" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1521" t="n">
+        <v>4008</v>
+      </c>
+      <c r="I1521" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1522">
+      <c r="A1522" t="n">
+        <v>2582</v>
+      </c>
+      <c r="B1522" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1522" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1522" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1522" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1522" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1522" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1522" t="n">
+        <v>3945</v>
+      </c>
+      <c r="I1522" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1523">
+      <c r="A1523" t="n">
+        <v>2583</v>
+      </c>
+      <c r="B1523" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1523" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1523" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1523" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1523" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1523" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1523" t="n">
+        <v>3983</v>
+      </c>
+      <c r="I1523" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1524">
+      <c r="A1524" t="n">
+        <v>2584</v>
+      </c>
+      <c r="B1524" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1524" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1524" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1524" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1524" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1524" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1524" t="n">
+        <v>3971</v>
+      </c>
+      <c r="I1524" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1525">
+      <c r="A1525" t="inlineStr">
+        <is>
+          <t>00002585</t>
+        </is>
+      </c>
+      <c r="B1525" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1525" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1525" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1525" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1525" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1525" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1525" t="n">
+        <v>4026</v>
+      </c>
+      <c r="I1525" t="n">
         <v>5000000</v>
       </c>
     </row>

--- a/ParticleSystem_database.xlsx
+++ b/ParticleSystem_database.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1525"/>
+  <dimension ref="A1:I1538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44648,10 +44648,8 @@
       </c>
     </row>
     <row r="1525">
-      <c r="A1525" t="inlineStr">
-        <is>
-          <t>00002585</t>
-        </is>
+      <c r="A1525" t="n">
+        <v>2585</v>
       </c>
       <c r="B1525" t="n">
         <v>0.4</v>
@@ -44675,6 +44673,385 @@
         <v>4026</v>
       </c>
       <c r="I1525" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1526">
+      <c r="A1526" t="n">
+        <v>2586</v>
+      </c>
+      <c r="B1526" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1526" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1526" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1526" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1526" t="n">
+        <v>300</v>
+      </c>
+      <c r="G1526" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1526" t="n">
+        <v>12037</v>
+      </c>
+      <c r="I1526" t="n">
+        <v>1e+18</v>
+      </c>
+    </row>
+    <row r="1527">
+      <c r="A1527" t="n">
+        <v>2587</v>
+      </c>
+      <c r="B1527" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1527" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1527" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1527" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1527" t="n">
+        <v>300</v>
+      </c>
+      <c r="G1527" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1527" t="n">
+        <v>12087</v>
+      </c>
+      <c r="I1527" t="n">
+        <v>1e+18</v>
+      </c>
+    </row>
+    <row r="1528">
+      <c r="A1528" t="n">
+        <v>2588</v>
+      </c>
+      <c r="B1528" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1528" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1528" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1528" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1528" t="n">
+        <v>300</v>
+      </c>
+      <c r="G1528" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1528" t="n">
+        <v>11975</v>
+      </c>
+      <c r="I1528" t="n">
+        <v>1e+18</v>
+      </c>
+    </row>
+    <row r="1529">
+      <c r="A1529" t="n">
+        <v>2589</v>
+      </c>
+      <c r="B1529" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1529" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1529" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1529" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1529" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1529" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1529" t="n">
+        <v>4023</v>
+      </c>
+      <c r="I1529" t="n">
+        <v>1e+18</v>
+      </c>
+    </row>
+    <row r="1530">
+      <c r="A1530" t="n">
+        <v>2590</v>
+      </c>
+      <c r="B1530" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1530" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1530" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1530" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1530" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1530" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1530" t="n">
+        <v>1933</v>
+      </c>
+      <c r="I1530" t="n">
+        <v>1e+18</v>
+      </c>
+    </row>
+    <row r="1531">
+      <c r="A1531" t="n">
+        <v>2591</v>
+      </c>
+      <c r="B1531" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1531" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1531" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1531" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1531" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1531" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1531" t="n">
+        <v>6077</v>
+      </c>
+      <c r="I1531" t="n">
+        <v>1e+18</v>
+      </c>
+    </row>
+    <row r="1532">
+      <c r="A1532" t="n">
+        <v>2592</v>
+      </c>
+      <c r="B1532" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1532" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1532" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1532" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1532" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1532" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1532" t="n">
+        <v>3981</v>
+      </c>
+      <c r="I1532" t="n">
+        <v>1e+18</v>
+      </c>
+    </row>
+    <row r="1533">
+      <c r="A1533" t="n">
+        <v>2593</v>
+      </c>
+      <c r="B1533" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1533" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1533" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1533" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1533" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1533" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1533" t="n">
+        <v>6023</v>
+      </c>
+      <c r="I1533" t="n">
+        <v>1e+18</v>
+      </c>
+    </row>
+    <row r="1534">
+      <c r="A1534" t="n">
+        <v>2594</v>
+      </c>
+      <c r="B1534" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1534" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1534" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1534" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1534" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1534" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1534" t="n">
+        <v>5932</v>
+      </c>
+      <c r="I1534" t="n">
+        <v>1e+18</v>
+      </c>
+    </row>
+    <row r="1535">
+      <c r="A1535" t="n">
+        <v>2595</v>
+      </c>
+      <c r="B1535" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1535" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1535" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1535" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1535" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1535" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1535" t="n">
+        <v>3941</v>
+      </c>
+      <c r="I1535" t="n">
+        <v>1e+18</v>
+      </c>
+    </row>
+    <row r="1536">
+      <c r="A1536" t="n">
+        <v>2596</v>
+      </c>
+      <c r="B1536" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1536" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1536" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1536" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1536" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1536" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1536" t="n">
+        <v>4048</v>
+      </c>
+      <c r="I1536" t="n">
+        <v>1e+18</v>
+      </c>
+    </row>
+    <row r="1537">
+      <c r="A1537" t="n">
+        <v>2597</v>
+      </c>
+      <c r="B1537" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1537" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1537" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1537" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1537" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1537" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1537" t="n">
+        <v>4010</v>
+      </c>
+      <c r="I1537" t="n">
+        <v>1e+18</v>
+      </c>
+    </row>
+    <row r="1538">
+      <c r="A1538" t="inlineStr">
+        <is>
+          <t>00002598</t>
+        </is>
+      </c>
+      <c r="B1538" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1538" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1538" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1538" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1538" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1538" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1538" t="n">
+        <v>3941</v>
+      </c>
+      <c r="I1538" t="n">
         <v>5000000</v>
       </c>
     </row>

--- a/ParticleSystem_database.xlsx
+++ b/ParticleSystem_database.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1538"/>
+  <dimension ref="A1:I1577"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45025,10 +45025,8 @@
       </c>
     </row>
     <row r="1538">
-      <c r="A1538" t="inlineStr">
-        <is>
-          <t>00002598</t>
-        </is>
+      <c r="A1538" t="n">
+        <v>2598</v>
       </c>
       <c r="B1538" t="n">
         <v>0.4</v>
@@ -45052,6 +45050,1139 @@
         <v>3941</v>
       </c>
       <c r="I1538" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539" t="n">
+        <v>2599</v>
+      </c>
+      <c r="B1539" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1539" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1539" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1539" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1539" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1539" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1539" t="n">
+        <v>4118</v>
+      </c>
+      <c r="I1539" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1540">
+      <c r="A1540" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B1540" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1540" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1540" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1540" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1540" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1540" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1540" t="n">
+        <v>4024</v>
+      </c>
+      <c r="I1540" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1541">
+      <c r="A1541" t="n">
+        <v>2601</v>
+      </c>
+      <c r="B1541" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1541" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1541" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1541" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1541" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1541" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1541" t="n">
+        <v>4043</v>
+      </c>
+      <c r="I1541" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1542">
+      <c r="A1542" t="n">
+        <v>2602</v>
+      </c>
+      <c r="B1542" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1542" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1542" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1542" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1542" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1542" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1542" t="n">
+        <v>4027</v>
+      </c>
+      <c r="I1542" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1543">
+      <c r="A1543" t="n">
+        <v>2603</v>
+      </c>
+      <c r="B1543" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1543" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1543" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1543" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1543" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1543" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1543" t="n">
+        <v>4103</v>
+      </c>
+      <c r="I1543" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1544">
+      <c r="A1544" t="n">
+        <v>2604</v>
+      </c>
+      <c r="B1544" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1544" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1544" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1544" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1544" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1544" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1544" t="n">
+        <v>4037</v>
+      </c>
+      <c r="I1544" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1545">
+      <c r="A1545" t="n">
+        <v>2605</v>
+      </c>
+      <c r="B1545" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1545" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1545" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1545" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1545" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1545" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1545" t="n">
+        <v>3947</v>
+      </c>
+      <c r="I1545" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1546">
+      <c r="A1546" t="n">
+        <v>2606</v>
+      </c>
+      <c r="B1546" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1546" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1546" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1546" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1546" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1546" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1546" t="n">
+        <v>3946</v>
+      </c>
+      <c r="I1546" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="A1547" t="n">
+        <v>2607</v>
+      </c>
+      <c r="B1547" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1547" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1547" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1547" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1547" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1547" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1547" t="n">
+        <v>3891</v>
+      </c>
+      <c r="I1547" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1548">
+      <c r="A1548" t="n">
+        <v>2608</v>
+      </c>
+      <c r="B1548" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1548" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1548" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1548" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1548" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1548" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1548" t="n">
+        <v>4030</v>
+      </c>
+      <c r="I1548" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549" t="n">
+        <v>2609</v>
+      </c>
+      <c r="B1549" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1549" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1549" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1549" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1549" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1549" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1549" t="n">
+        <v>4038</v>
+      </c>
+      <c r="I1549" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1550">
+      <c r="A1550" t="n">
+        <v>2610</v>
+      </c>
+      <c r="B1550" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1550" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1550" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1550" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1550" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1550" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1550" t="n">
+        <v>4101</v>
+      </c>
+      <c r="I1550" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="A1551" t="n">
+        <v>2611</v>
+      </c>
+      <c r="B1551" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1551" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1551" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1551" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1551" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1551" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1551" t="n">
+        <v>4086</v>
+      </c>
+      <c r="I1551" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="A1552" t="n">
+        <v>2612</v>
+      </c>
+      <c r="B1552" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1552" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1552" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1552" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1552" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1552" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1552" t="n">
+        <v>3986</v>
+      </c>
+      <c r="I1552" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553" t="n">
+        <v>2613</v>
+      </c>
+      <c r="B1553" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1553" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1553" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1553" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1553" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1553" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1553" t="n">
+        <v>3936</v>
+      </c>
+      <c r="I1553" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1554">
+      <c r="A1554" t="n">
+        <v>2614</v>
+      </c>
+      <c r="B1554" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1554" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1554" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1554" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1554" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1554" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1554" t="n">
+        <v>3971</v>
+      </c>
+      <c r="I1554" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555" t="n">
+        <v>2615</v>
+      </c>
+      <c r="B1555" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1555" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1555" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1555" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1555" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1555" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1555" t="n">
+        <v>4007</v>
+      </c>
+      <c r="I1555" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" t="n">
+        <v>2616</v>
+      </c>
+      <c r="B1556" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1556" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1556" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1556" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1556" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1556" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1556" t="n">
+        <v>4080</v>
+      </c>
+      <c r="I1556" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" t="n">
+        <v>2617</v>
+      </c>
+      <c r="B1557" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1557" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1557" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1557" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1557" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1557" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1557" t="n">
+        <v>3918</v>
+      </c>
+      <c r="I1557" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558" t="n">
+        <v>2618</v>
+      </c>
+      <c r="B1558" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1558" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1558" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1558" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1558" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1558" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1558" t="n">
+        <v>4012</v>
+      </c>
+      <c r="I1558" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1559">
+      <c r="A1559" t="n">
+        <v>2619</v>
+      </c>
+      <c r="B1559" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1559" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1559" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1559" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1559" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1559" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1559" t="n">
+        <v>4015</v>
+      </c>
+      <c r="I1559" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1560">
+      <c r="A1560" t="n">
+        <v>2620</v>
+      </c>
+      <c r="B1560" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1560" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1560" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1560" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1560" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1560" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1560" t="n">
+        <v>3971</v>
+      </c>
+      <c r="I1560" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1561">
+      <c r="A1561" t="n">
+        <v>2621</v>
+      </c>
+      <c r="B1561" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1561" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1561" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1561" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1561" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1561" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1561" t="n">
+        <v>3990</v>
+      </c>
+      <c r="I1561" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1562">
+      <c r="A1562" t="n">
+        <v>2622</v>
+      </c>
+      <c r="B1562" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1562" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1562" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1562" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1562" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1562" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1562" t="n">
+        <v>3951</v>
+      </c>
+      <c r="I1562" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563" t="n">
+        <v>2623</v>
+      </c>
+      <c r="B1563" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1563" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1563" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1563" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1563" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1563" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1563" t="n">
+        <v>4020</v>
+      </c>
+      <c r="I1563" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1564">
+      <c r="A1564" t="n">
+        <v>2624</v>
+      </c>
+      <c r="B1564" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1564" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1564" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1564" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1564" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1564" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1564" t="n">
+        <v>4053</v>
+      </c>
+      <c r="I1564" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1565">
+      <c r="A1565" t="n">
+        <v>2625</v>
+      </c>
+      <c r="B1565" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1565" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1565" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1565" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1565" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1565" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1565" t="n">
+        <v>3940</v>
+      </c>
+      <c r="I1565" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1566">
+      <c r="A1566" t="n">
+        <v>2626</v>
+      </c>
+      <c r="B1566" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1566" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1566" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1566" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1566" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1566" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1566" t="n">
+        <v>3984</v>
+      </c>
+      <c r="I1566" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="A1567" t="n">
+        <v>2627</v>
+      </c>
+      <c r="B1567" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1567" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1567" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1567" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1567" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1567" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1567" t="n">
+        <v>3961</v>
+      </c>
+      <c r="I1567" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568" t="n">
+        <v>2628</v>
+      </c>
+      <c r="B1568" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1568" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1568" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1568" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1568" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1568" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1568" t="n">
+        <v>3996</v>
+      </c>
+      <c r="I1568" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1569">
+      <c r="A1569" t="n">
+        <v>2629</v>
+      </c>
+      <c r="B1569" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1569" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1569" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1569" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1569" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1569" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1569" t="n">
+        <v>3909</v>
+      </c>
+      <c r="I1569" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570" t="n">
+        <v>2630</v>
+      </c>
+      <c r="B1570" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1570" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1570" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1570" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1570" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1570" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1570" t="n">
+        <v>4038</v>
+      </c>
+      <c r="I1570" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571" t="n">
+        <v>2631</v>
+      </c>
+      <c r="B1571" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1571" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1571" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1571" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1571" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1571" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1571" t="n">
+        <v>4055</v>
+      </c>
+      <c r="I1571" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="A1572" t="n">
+        <v>2632</v>
+      </c>
+      <c r="B1572" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1572" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1572" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1572" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1572" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1572" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1572" t="n">
+        <v>3981</v>
+      </c>
+      <c r="I1572" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1573">
+      <c r="A1573" t="n">
+        <v>2633</v>
+      </c>
+      <c r="B1573" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1573" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1573" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1573" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1573" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1573" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1573" t="n">
+        <v>4066</v>
+      </c>
+      <c r="I1573" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1574">
+      <c r="A1574" t="n">
+        <v>2634</v>
+      </c>
+      <c r="B1574" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1574" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1574" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1574" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1574" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1574" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1574" t="n">
+        <v>3960</v>
+      </c>
+      <c r="I1574" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1575">
+      <c r="A1575" t="n">
+        <v>2635</v>
+      </c>
+      <c r="B1575" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1575" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1575" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1575" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1575" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1575" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1575" t="n">
+        <v>3924</v>
+      </c>
+      <c r="I1575" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1576">
+      <c r="A1576" t="n">
+        <v>2636</v>
+      </c>
+      <c r="B1576" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1576" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1576" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1576" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1576" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1576" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1576" t="n">
+        <v>4055</v>
+      </c>
+      <c r="I1576" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1577">
+      <c r="A1577" t="inlineStr">
+        <is>
+          <t>00002637</t>
+        </is>
+      </c>
+      <c r="B1577" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C1577" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D1577" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1577" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1577" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1577" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1577" t="n">
+        <v>3947</v>
+      </c>
+      <c r="I1577" t="n">
         <v>5000000</v>
       </c>
     </row>
